--- a/数据库整合2/merged3.xlsx
+++ b/数据库整合2/merged3.xlsx
@@ -13264,7 +13264,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B503"/>
+  <dimension ref="A1:B504"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13328,7 +13328,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>["""Cholera due to Vibrio cholerae 01, biovar eltor""","""Cholera eltor"""],["""Cholera due to Vibrio cholerae 01, biovar eltor""","""Cholera eltor"""]</t>
+          <t>["""Cholera eltor""","""Cholera due to Vibrio cholerae 01, biovar eltor"""],["""Cholera eltor""","""Cholera due to Vibrio cholerae 01, biovar eltor"""]</t>
         </is>
       </c>
     </row>
@@ -13347,7 +13347,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2:ICD10:A01,ICD10_CM:A01</t>
+          <t>2:ICD10_CM:A01,ICD10:A01</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -13364,14 +13364,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>["""Typhoid fever""","""Infection due to Salmonella typhi"""],["""Typhoid fever""","""Infection due to Salmonella typhi"""]</t>
+          <t>["""Infection due to Salmonella typhi""","""Typhoid fever"""],["""Infection due to Salmonella typhi""","""Typhoid fever"""]</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2:ICD10_CM:A01.1,ICD10:A01.1</t>
+          <t>2:ICD10:A01.1,ICD10_CM:A01.1</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -13383,7 +13383,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2:ICD10:A01.2,ICD10_CM:A01.2</t>
+          <t>2:ICD10_CM:A01.2,ICD10:A01.2</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -13407,31 +13407,31 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2:ICD10:A01.4,ICD10_CM:A01.4</t>
+          <t>2:ICD10_CM:A01.4,ICD10:A01.4</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>["""Infection due to Salmonella paratyphi NOS""","""Paratyphoid fever, unspecified"""],["""Infection due to Salmonella paratyphi NOS""","""Paratyphoid fever, unspecified"""]</t>
+          <t>["""Paratyphoid fever, unspecified""","""Infection due to Salmonella paratyphi NOS"""],["""Paratyphoid fever, unspecified""","""Infection due to Salmonella paratyphi NOS"""]</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2:ICD10_CM:A02.0,ICD10:A02.0</t>
+          <t>2:ICD10:A02.0,ICD10_CM:A02.0</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>["""Salmonella enteritis""","""Salmonellosis"""],["""Salmonella enteritis""","""Salmonellosis"""]</t>
+          <t>["""Salmonellosis""","""Salmonella enteritis"""],["""Salmonellosis""","""Salmonella enteritis"""]</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2:ICD10:A02.1,ICD10_CM:A02.1</t>
+          <t>2:ICD10_CM:A02.1,ICD10:A02.1</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -13443,19 +13443,19 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2:ICD10_CM:A02.29,ICD10_CM:A02.2</t>
+          <t>2:ICD10_CM:A02.2,ICD10_CM:A02.29</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>["""Salmonella with other localized infection"""],["""Localized salmonella infections"""]</t>
+          <t>["""Localized salmonella infections"""],["""Salmonella with other localized infection"""]</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2:ICD10:A02.8,ICD10_CM:A02.8</t>
+          <t>2:ICD10_CM:A02.8,ICD10:A02.8</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -13479,19 +13479,19 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4:ICD10_CM:A03,ICD10:A03.8,ICD10_CM:A03.8,ICD10:A03</t>
+          <t>4:ICD10:A03,ICD10_CM:A03,ICD10_CM:A03.8,ICD10:A03.8</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>["""Shigellosis"""],["""Other shigellosis"""],["""Other shigellosis"""],["""Shigellosis"""]</t>
+          <t>["""Shigellosis"""],["""Shigellosis"""],["""Other shigellosis"""],["""Other shigellosis"""]</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2:ICD10_CM:A03.0,ICD10:A03.0</t>
+          <t>2:ICD10:A03.0,ICD10_CM:A03.0</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -13503,12 +13503,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2:ICD10:A03.1,ICD10_CM:A03.1</t>
+          <t>2:ICD10_CM:A03.1,ICD10:A03.1</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>["""Group B shigellosis""","""Shigellosis due to Shigella flexneri"""],["""Group B shigellosis""","""Shigellosis due to Shigella flexneri"""]</t>
+          <t>["""Shigellosis due to Shigella flexneri""","""Group B shigellosis"""],["""Shigellosis due to Shigella flexneri""","""Group B shigellosis"""]</t>
         </is>
       </c>
     </row>
@@ -13527,7 +13527,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2:ICD10_CM:A03.3,ICD10:A03.3</t>
+          <t>2:ICD10:A03.3,ICD10_CM:A03.3</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -13551,12 +13551,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>3:ICD10_CM:A18.32,ICD10_CM:A04,ICD10_CM:A18.83</t>
+          <t>2:ICD10_CM:A18.32,ICD10_CM:A04</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>["""Tuberculosis of intestine (large) (small)Tuberculous enteritis""","""Tuberculous enteritis""","""Tuberculosis of intestine (large) (small)""","""Tuberculosis of anus and rectum"""],["""bacterial foodborne intoxications, NEC""","""Other bacterial intestinal infections""","""tuberculous enteritis"""],["""tuberculosis of intestine""","""Tuberculosis of digestive tract organs, not elsewhere classified"""]</t>
+          <t>["""Tuberculosis of intestine (large) (small)""","""Tuberculosis of intestine (large) (small)Tuberculous enteritis""","""Tuberculous enteritis""","""Tuberculosis of anus and rectum"""],["""tuberculous enteritis""","""bacterial foodborne intoxications, NEC""","""Other bacterial intestinal infections"""]</t>
         </is>
       </c>
     </row>
@@ -13575,7 +13575,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2:ICD10:A04.1,ICD10_CM:A04.1</t>
+          <t>2:ICD10_CM:A04.1,ICD10:A04.1</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -13599,7 +13599,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2:ICD10_CM:A04.4,ICD10:A04.4</t>
+          <t>2:ICD10:A04.4,ICD10_CM:A04.4</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -13623,7 +13623,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2:ICD10_CM:A04.8,ICD10:A04.8</t>
+          <t>2:ICD10:A04.8,ICD10_CM:A04.8</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -13640,14 +13640,14 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>["""Bacterial intestinal infection, unspecified""","""Bacterial enteritis NOS"""],["""Bacterial intestinal infection, unspecified""","""Bacterial enteritis NOS"""]</t>
+          <t>["""Bacterial enteritis NOS""","""Bacterial intestinal infection, unspecified"""],["""Bacterial enteritis NOS""","""Bacterial intestinal infection, unspecified"""]</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2:ICD10:A05.0,ICD10_CM:A05.0</t>
+          <t>2:ICD10_CM:A05.0,ICD10:A05.0</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -13659,7 +13659,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2:ICD10_CM:A05.3,ICD10:A05.3</t>
+          <t>2:ICD10:A05.3,ICD10_CM:A05.3</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -13671,7 +13671,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2:ICD10_CM:A05.4,ICD10:A05.4</t>
+          <t>2:ICD10:A05.4,ICD10_CM:A05.4</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -13683,7 +13683,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2:ICD10:A05.8,ICD10_CM:A05.8</t>
+          <t>2:ICD10_CM:A05.8,ICD10:A05.8</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -13707,7 +13707,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2:ICD10:A07,ICD10_CM:A07</t>
+          <t>2:ICD10_CM:A07,ICD10:A07</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -13719,12 +13719,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2:ICD10_CM:A07.0,ICD10:A07.0</t>
+          <t>2:ICD10:A07.0,ICD10_CM:A07.0</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>["""Balantidial dysentery""","""Balantidiasis"""],["""Balantidial dysentery""","""Balantidiasis"""]</t>
+          <t>["""Balantidiasis""","""Balantidial dysentery"""],["""Balantidiasis""","""Balantidial dysentery"""]</t>
         </is>
       </c>
     </row>
@@ -13755,7 +13755,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2:ICD10_CM:A08.0,ICD10:A08.0</t>
+          <t>2:ICD10:A08.0,ICD10_CM:A08.0</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -13779,7 +13779,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2:ICD10:A08.3,ICD10_CM:A08.3</t>
+          <t>2:ICD10_CM:A08.3,ICD10:A08.3</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -13803,55 +13803,55 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>5:ICD10_CM:A15.4,ICD10_CM:A15.6,ICD10_CM:A18.2,ICD10_CM:A15.7,ICD10_CM:A18.39</t>
+          <t>2:ICD10_CM:A15.6,ICD10_CM:A15.4</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>["""Tuberculosis of intrathoracic lymph nodes""","""Tuberculosis of mediastinal lymph nodesTuberculosis of hilar lymph nodes""","""Tuberculosis of tracheobronchial lymph nodes""","""Tuberculosis of mediastinal lymph nodes""","""Tuberculosis of hilar lymph nodes"""],["""Tuberculosis of pleura Tuberculous empyema""","""Tuberculous pleurisy""","""primary respiratory tuberculosis"""],["""tuberculosis of mesenteric and retroperitoneal lymph nodes""","""Tuberculous adenitis""","""Tuberculous peripheral lymphadenopathy""","""tuberculous tracheobronchial adenopathy""","""tuberculosis of mesenteric and retroperitoneal lymph nodestuberculous tracheobronchial adenopathy"""],["""Primary respiratory tuberculosis"""],["""Tuberculosis of retroperitoneal (lymph glands)""","""Tuberculosis of mesenteric glandsTuberculosis of retroperitoneal (lymph glands)""","""Retroperitoneal tuberculosis""","""Tuberculosis of mesenteric glands"""]</t>
+          <t>["""Tuberculosis of pleura Tuberculous empyema""","""primary respiratory tuberculosis""","""Tuberculous pleurisy"""],["""Tuberculosis of hilar lymph nodes""","""Tuberculosis of mediastinal lymph nodes""","""Tuberculosis of mediastinal lymph nodesTuberculosis of hilar lymph nodes""","""Tuberculosis of tracheobronchial lymph nodes""","""Tuberculosis of intrathoracic lymph nodes"""]</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>3:ICD10:A17,ICD10_CM:A17,ICD10_CM:A17.8</t>
+          <t>3:ICD10_CM:A17.8,ICD10_CM:A17,ICD10:A17</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>["""Tuberculosis of nervous system"""],["""Tuberculosis of nervous system"""],["""Other tuberculosis of nervous system"""]</t>
+          <t>["""Other tuberculosis of nervous system"""],["""Tuberculosis of nervous system"""],["""Tuberculosis of nervous system"""]</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2:ICD10_CM:A17.82,ICD10_CM:A17.0</t>
+          <t>2:ICD10_CM:A17.0,ICD10_CM:A17.82</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>["""Tuberculous meningoencephalitis""","""Tuberculous myelitis"""],["""Tuberculosis of meninges (cerebral)(spinal)""","""Tuberculous meningitisTuberculosis of meninges (cerebral)(spinal)""","""Tuberculous meningitis""","""tuberculous meningoencephalitis""","""Tuberculous leptomeningitis"""]</t>
+          <t>["""Tuberculous leptomeningitis""","""Tuberculous meningitisTuberculosis of meninges (cerebral)(spinal)""","""tuberculous meningoencephalitis""","""Tuberculous meningitis""","""Tuberculosis of meninges (cerebral)(spinal)"""],["""Tuberculous meningoencephalitis""","""Tuberculous myelitis"""]</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2:ICD10_CM:A17.1,ICD10_CM:A17.81</t>
+          <t>2:ICD10_CM:A17.81,ICD10_CM:A17.1</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>["""Tuberculoma of meninges (cerebral) (spinal)Meningeal tuberculoma""","""Meningeal tuberculoma""","""tuberculoma of brain and spinal cord""","""Tuberculoma of meninges (cerebral) (spinal)"""],["""Tuberculoma of brain and spinal cord""","""Tuberculous abscess of brain and spinal cord"""]</t>
+          <t>["""Tuberculous abscess of brain and spinal cord""","""Tuberculoma of brain and spinal cord"""],["""Tuberculoma of meninges (cerebral) (spinal)""","""Tuberculoma of meninges (cerebral) (spinal)Meningeal tuberculoma""","""tuberculoma of brain and spinal cord""","""Meningeal tuberculoma"""]</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2:ICD10:A18,ICD10_CM:A18</t>
+          <t>2:ICD10_CM:A18,ICD10:A18</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -13863,12 +13863,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>4:ICD10_CM:A18.4,ICD10_CM:A18.03,ICD10_CM:A18.6,ICD10_CM:A18.5</t>
+          <t>2:ICD10_CM:A18.6,ICD10_CM:A18.03</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>["""Tuberculosis of skin and subcutaneous tissue""","""Tuberculosis of skin and subcutaneous tissuelupus erythematosus""","""Lupus excedens""","""lupus erythematosus"""],["""Tuberculosis of other bones""","""Tuberculous mastoiditis""","""Tuberculous osteomyelitis""","""Tuberculous mastoiditisTuberculous osteomyelitis"""],["""tuberculosis of external eartuberculous mastoiditis""","""tuberculous mastoiditis""","""tuberculosis of external ear""","""Tuberculosis of (inner) (middle) ear"""],["""lupus vulgaris of eyelid""","""Tuberculosis of eye"""]</t>
+          <t>["""tuberculosis of external eartuberculous mastoiditis""","""Tuberculosis of (inner) (middle) ear""","""tuberculous mastoiditis""","""tuberculosis of external ear"""],["""Tuberculous osteomyelitis""","""Tuberculous mastoiditis""","""Tuberculosis of other bones""","""Tuberculous mastoiditisTuberculous osteomyelitis"""]</t>
         </is>
       </c>
     </row>
@@ -13880,26 +13880,26 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>["""Tuberculosis of skin and subcutaneous tissue""","""Tuberculosis of skin and subcutaneous tissuelupus erythematosus""","""Lupus excedens""","""lupus erythematosus"""],["""lupus vulgaris of eyelid""","""Tuberculosis of eye"""]</t>
+          <t>["""Tuberculosis of skin and subcutaneous tissue""","""Tuberculosis of skin and subcutaneous tissuelupus erythematosus""","""lupus erythematosus""","""Lupus excedens"""],["""lupus vulgaris of eyelid""","""Tuberculosis of eye"""]</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>3:ICD10_CM:A19.8,ICD10:A19.8,ICD10_CM:A19</t>
+          <t>3:ICD10:A19.8,ICD10_CM:A19,ICD10_CM:A19.8</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>["""Other miliary tuberculosis"""],["""Other miliary tuberculosis"""],["""Miliary tuberculosis"""]</t>
+          <t>["""Other miliary tuberculosis"""],["""Miliary tuberculosis"""],["""Other miliary tuberculosis"""]</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2:ICD10:A19.0,ICD10_CM:A19.0</t>
+          <t>2:ICD10_CM:A19.0,ICD10:A19.0</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -13911,7 +13911,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2:ICD10:A19.1,ICD10_CM:A19.1</t>
+          <t>2:ICD10_CM:A19.1,ICD10:A19.1</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -13971,7 +13971,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2:ICD10_CM:A20.2,ICD10:A20.2</t>
+          <t>2:ICD10:A20.2,ICD10_CM:A20.2</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -13983,7 +13983,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2:ICD10:A20.3,ICD10_CM:A20.3</t>
+          <t>2:ICD10_CM:A20.3,ICD10:A20.3</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -13995,7 +13995,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2:ICD10:A20.9,ICD10_CM:A20.9</t>
+          <t>2:ICD10_CM:A20.9,ICD10:A20.9</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -14007,7 +14007,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2:ICD10_CM:A22.2,ICD10:A22.2</t>
+          <t>2:ICD10:A22.2,ICD10_CM:A22.2</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -14031,7 +14031,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2:ICD10_CM:A22.9,ICD10:A22.9</t>
+          <t>2:ICD10:A22.9,ICD10_CM:A22.9</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -14043,19 +14043,19 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2:ICD10:A23.8,ICD10_CM:A23</t>
+          <t>2:ICD10_CM:A23,ICD10:A23.8</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>["""Other brucellosis"""],["""Brucellosis"""]</t>
+          <t>["""Brucellosis"""],["""Other brucellosis"""]</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2:ICD10_CM:A23.0,ICD10:A23.0</t>
+          <t>2:ICD10:A23.0,ICD10_CM:A23.0</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -14067,7 +14067,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2:ICD10:A23.1,ICD10_CM:A23.1</t>
+          <t>2:ICD10_CM:A23.1,ICD10:A23.1</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -14079,7 +14079,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2:ICD10:A23.2,ICD10_CM:A23.2</t>
+          <t>2:ICD10_CM:A23.2,ICD10:A23.2</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -14091,7 +14091,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2:ICD10_CM:A23.3,ICD10:A23.3</t>
+          <t>2:ICD10:A23.3,ICD10_CM:A23.3</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -14103,12 +14103,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2:ICD10:A15,ICD10:A16</t>
+          <t>2:ICD10:A16,ICD10:A15</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>["""Respiratory tuberculosis, bacteriologically and histologically confirmed"""],["""Respiratory tuberculosis, not confirmed bacteriologically or histologically"""]</t>
+          <t>["""Respiratory tuberculosis, not confirmed bacteriologically or histologically"""],["""Respiratory tuberculosis, bacteriologically and histologically confirmed"""]</t>
         </is>
       </c>
     </row>
@@ -14120,7 +14120,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>["""hemangiosarcoma""","""angiosarcoma"""]</t>
+          <t>["""angiosarcoma""","""hemangiosarcoma"""]</t>
         </is>
       </c>
     </row>
@@ -14132,7 +14132,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>["""surfer's eye""","""pterygium"""]</t>
+          <t>["""pterygium""","""surfer's eye"""]</t>
         </is>
       </c>
     </row>
@@ -14144,7 +14144,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>["""metabolic disease""","""disease of metabolism"""]</t>
+          <t>["""disease of metabolism""","""metabolic disease"""]</t>
         </is>
       </c>
     </row>
@@ -14168,7 +14168,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>["""ASA allergy""","""acetylsalicylic acid allergy""","""aspirin allergy"""]</t>
+          <t>["""aspirin allergy""","""acetylsalicylic acid allergy""","""ASA allergy"""]</t>
         </is>
       </c>
     </row>
@@ -14180,7 +14180,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>["""benzyl benicillin allergy""","""benzylpenicillin allergy""","""penicillin G allergy"""]</t>
+          <t>["""benzylpenicillin allergy""","""penicillin G allergy""","""benzyl benicillin allergy"""]</t>
         </is>
       </c>
     </row>
@@ -14204,7 +14204,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>["""rocephin allergy""","""ceftriaxone allergy"""]</t>
+          <t>["""ceftriaxone allergy""","""rocephin allergy"""]</t>
         </is>
       </c>
     </row>
@@ -14216,7 +14216,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>["""carbamazepen allergy""","""Tegretol allergy""","""carbamazepine allergy"""]</t>
+          <t>["""carbamazepine allergy""","""carbamazepen allergy""","""Tegretol allergy"""]</t>
         </is>
       </c>
     </row>
@@ -14228,7 +14228,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>["""abacavir allergy""","""ABC allergy"""]</t>
+          <t>["""ABC allergy""","""abacavir allergy"""]</t>
         </is>
       </c>
     </row>
@@ -14240,7 +14240,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>["""isoniazide allergy""","""INH allergy""","""isonicotinylhydrazide allergy"""]</t>
+          <t>["""isonicotinylhydrazide allergy""","""isoniazide allergy""","""INH allergy"""]</t>
         </is>
       </c>
     </row>
@@ -14252,7 +14252,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>["""Lidoderm allergy""","""lidocaine allergy""","""lignocaine allergy""","""xylocaine allergy"""]</t>
+          <t>["""Lidoderm allergy""","""xylocaine allergy""","""lidocaine allergy""","""lignocaine allergy"""]</t>
         </is>
       </c>
     </row>
@@ -14264,7 +14264,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>["""Carbocaine allergy""","""Polocaine allergy""","""mepivacaine allergy"""]</t>
+          <t>["""mepivacaine allergy""","""Carbocaine allergy""","""Polocaine allergy"""]</t>
         </is>
       </c>
     </row>
@@ -14276,7 +14276,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>["""phenobarbitone allergy""","""phenobarbitol allergy""","""Luminal allergy""","""phenobarbital allergy"""]</t>
+          <t>["""phenobarbitol allergy""","""phenobarbital allergy""","""phenobarbitone allergy""","""Luminal allergy"""]</t>
         </is>
       </c>
     </row>
@@ -14288,7 +14288,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>["""Dilantin allergy""","""phenytoin allergy"""]</t>
+          <t>["""phenytoin allergy""","""Dilantin allergy"""]</t>
         </is>
       </c>
     </row>
@@ -14300,7 +14300,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>["""Zantac allergy""","""ranitidine allergy"""]</t>
+          <t>["""ranitidine allergy""","""Zantac allergy"""]</t>
         </is>
       </c>
     </row>
@@ -14336,7 +14336,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>["""SMX allergy""","""sulfamethoxazole allergy""","""SMZ allergy""","""sulphamethoxazole allergy"""]</t>
+          <t>["""sulphamethoxazole allergy""","""SMZ allergy""","""sulfamethoxazole allergy""","""SMX allergy"""]</t>
         </is>
       </c>
     </row>
@@ -14348,7 +14348,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>["""Profenal allergy""","""suprofen allergy"""]</t>
+          <t>["""suprofen allergy""","""Profenal allergy"""]</t>
         </is>
       </c>
     </row>
@@ -14360,7 +14360,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>["""thiopental allergy""","""penthiobarbital allergy""","""pentothiobarbital allergy"""]</t>
+          <t>["""penthiobarbital allergy""","""thiopental allergy""","""pentothiobarbital allergy"""]</t>
         </is>
       </c>
     </row>
@@ -14408,7 +14408,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>["""Camoquin allergy""","""amodiaquine allergy""","""Flavoquine allergy"""]</t>
+          <t>["""amodiaquine allergy""","""Flavoquine allergy""","""Camoquin allergy"""]</t>
         </is>
       </c>
     </row>
@@ -14420,7 +14420,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>["""cephaclor allergy""","""cefaclor allergy""","""Ceclor allergy"""]</t>
+          <t>["""Ceclor allergy""","""cefaclor allergy""","""cephaclor allergy"""]</t>
         </is>
       </c>
     </row>
@@ -14432,7 +14432,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>["""Fortaz allergy""","""Tazicef allergy""","""ceftazidime allergy"""]</t>
+          <t>["""Tazicef allergy""","""ceftazidime allergy""","""Fortaz allergy"""]</t>
         </is>
       </c>
     </row>
@@ -14444,7 +14444,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>["""Zinacef allergy""","""cefuroxime allergy""","""cephuroxime allergy"""]</t>
+          <t>["""cefuroxime allergy""","""Zinacef allergy""","""cephuroxime allergy"""]</t>
         </is>
       </c>
     </row>
@@ -14468,7 +14468,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>["""cyclophosphamide allergy""","""cytophosphane allergy"""]</t>
+          <t>["""cytophosphane allergy""","""cyclophosphamide allergy"""]</t>
         </is>
       </c>
     </row>
@@ -14480,7 +14480,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>["""succinocholine allergy""","""sux allergy""","""dicholine succinate allergy""","""suxamethonium allergy""","""succinylcholine allergy"""]</t>
+          <t>["""dicholine succinate allergy""","""succinylcholine allergy""","""suxamethonium allergy""","""sux allergy""","""succinocholine allergy"""]</t>
         </is>
       </c>
     </row>
@@ -14492,7 +14492,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>["""TMP allergy""","""Primsol allergy""","""proloprim allergy""","""trimethoprim allergy"""]</t>
+          <t>["""Primsol allergy""","""proloprim allergy""","""TMP allergy""","""trimethoprim allergy"""]</t>
         </is>
       </c>
     </row>
@@ -14552,7 +14552,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>["""Esmeron allergy""","""rocuronium allergy""","""Zemuron allergy"""]</t>
+          <t>["""Zemuron allergy""","""rocuronium allergy""","""Esmeron allergy"""]</t>
         </is>
       </c>
     </row>
@@ -14576,7 +14576,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>["""DTC allergy""","""tubocurarine allergy"""]</t>
+          <t>["""tubocurarine allergy""","""DTC allergy"""]</t>
         </is>
       </c>
     </row>
@@ -14612,7 +14612,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>["""hexamethylene diisocyanate allergic asthma""","""allergic asthma to HDI""","""allergic asthma to HMDI"""]</t>
+          <t>["""allergic asthma to HMDI""","""allergic asthma to HDI""","""hexamethylene diisocyanate allergic asthma"""]</t>
         </is>
       </c>
     </row>
@@ -14636,7 +14636,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>["""diphenylmethane-4,4'-diisocyanate allergic asthma""","""allergic asthma to MDI"""]</t>
+          <t>["""allergic asthma to MDI""","""diphenylmethane-4,4'-diisocyanate allergic asthma"""]</t>
         </is>
       </c>
     </row>
@@ -14648,7 +14648,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>["""toluene meta-diisocyanate allergic asthma""","""allergic asthma to TDI"""]</t>
+          <t>["""allergic asthma to TDI""","""toluene meta-diisocyanate allergic asthma"""]</t>
         </is>
       </c>
     </row>
@@ -14672,7 +14672,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>["""nickel allergic asthma""","""allergic asthma to Ni"""]</t>
+          <t>["""allergic asthma to Ni""","""nickel allergic asthma"""]</t>
         </is>
       </c>
     </row>
@@ -14732,7 +14732,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>["""allergic asthma to HHPA""","""hexahydrophthalic anhydride allergic asthma"""]</t>
+          <t>["""hexahydrophthalic anhydride allergic asthma""","""allergic asthma to HHPA"""]</t>
         </is>
       </c>
     </row>
@@ -14744,7 +14744,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>["""allergic contact dermatitis to MDI""","""diphenylmethane-4,4'-diisocyanate allergic contact dermatitis"""]</t>
+          <t>["""diphenylmethane-4,4'-diisocyanate allergic contact dermatitis""","""allergic contact dermatitis to MDI"""]</t>
         </is>
       </c>
     </row>
@@ -14780,7 +14780,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>["""palladium allergic contact dermatitis""","""allergic contact dermatitis to Pd"""]</t>
+          <t>["""allergic contact dermatitis to Pd""","""palladium allergic contact dermatitis"""]</t>
         </is>
       </c>
     </row>
@@ -14804,7 +14804,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>["""allergic contact dermatitis to p-phenylenediamine""","""1,4-phenylenediamine allergic contact dermatitis""","""allergic contact dermatitis to PPD"""]</t>
+          <t>["""allergic contact dermatitis to PPD""","""allergic contact dermatitis to p-phenylenediamine""","""1,4-phenylenediamine allergic contact dermatitis"""]</t>
         </is>
       </c>
     </row>
@@ -14828,7 +14828,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>["""photoallergic dermatitis to Orudis""","""ketoprofen photoallergic dermatitis"""]</t>
+          <t>["""ketoprofen photoallergic dermatitis""","""photoallergic dermatitis to Orudis"""]</t>
         </is>
       </c>
     </row>
@@ -14852,7 +14852,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>["""respiratory allergy to Trichlorol""","""chloramine T respiratory allergy""","""respiratory allergy to Chlorazol""","""respiratory allergy to Chloraseptin"""]</t>
+          <t>["""respiratory allergy to Chlorazol""","""chloramine T respiratory allergy""","""respiratory allergy to Chloraseptin""","""respiratory allergy to Trichlorol"""]</t>
         </is>
       </c>
     </row>
@@ -14864,7 +14864,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>["""respiratory allergy to vinyl cyclohexene diepoxide""","""4-vinylcyclohexene dioxide respiratory allergy"""]</t>
+          <t>["""4-vinylcyclohexene dioxide respiratory allergy""","""respiratory allergy to vinyl cyclohexene diepoxide"""]</t>
         </is>
       </c>
     </row>
@@ -14924,7 +14924,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>["""allergic contact dermatitis to butylphen""","""4-tert-butylphenol allergic contact dermatitis""","""allergic contact dermatitis to PTBP"""]</t>
+          <t>["""allergic contact dermatitis to butylphen""","""allergic contact dermatitis to PTBP""","""4-tert-butylphenol allergic contact dermatitis"""]</t>
         </is>
       </c>
     </row>
@@ -14936,7 +14936,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>["""1-chloro-2,4-dinitrobenzene allergic contact dermatitis""","""allergic contact dermatitis to DNCB""","""allergic contact dermatitis to dinitrochlorobenzene"""]</t>
+          <t>["""allergic contact dermatitis to dinitrochlorobenzene""","""allergic contact dermatitis to DNCB""","""1-chloro-2,4-dinitrobenzene allergic contact dermatitis"""]</t>
         </is>
       </c>
     </row>
@@ -14948,7 +14948,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>["""trimethoprim/sulfamethoxazole allergy""","""cotrimoxazol allergy""","""co-trimoxazole allergy""","""TMP/SMX allergy""","""Bactrim allergy"""]</t>
+          <t>["""Bactrim allergy""","""trimethoprim/sulfamethoxazole allergy""","""cotrimoxazol allergy""","""co-trimoxazole allergy""","""TMP/SMX allergy"""]</t>
         </is>
       </c>
     </row>
@@ -14972,7 +14972,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>["""parthenolide allergic contact dermatitis""","""allergic contact dermatitis to feverfew"""]</t>
+          <t>["""allergic contact dermatitis to feverfew""","""parthenolide allergic contact dermatitis"""]</t>
         </is>
       </c>
     </row>
@@ -14996,7 +14996,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>["""allergic contact dermatitis to formalin""","""formaldehyde allergic contact dermatitis"""]</t>
+          <t>["""formaldehyde allergic contact dermatitis""","""allergic contact dermatitis to formalin"""]</t>
         </is>
       </c>
     </row>
@@ -15008,7 +15008,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>["""allergic contact dermatitis to BIT""","""allergic contact dermatitis to benzisothiazolone""","""benzo[d]isothiazol-3-one allergic contact dermatitis"""]</t>
+          <t>["""benzo[d]isothiazol-3-one allergic contact dermatitis""","""allergic contact dermatitis to BIT""","""allergic contact dermatitis to benzisothiazolone"""]</t>
         </is>
       </c>
     </row>
@@ -15020,7 +15020,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>["""phthalyl group allergy""","""phthalyl allergy"""]</t>
+          <t>["""phthalyl allergy""","""phthalyl group allergy"""]</t>
         </is>
       </c>
     </row>
@@ -15092,7 +15092,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>["""ETO allergy""","""ethylene oxide allergy""","""oxirane allergy"""]</t>
+          <t>["""ETO allergy""","""oxirane allergy""","""ethylene oxide allergy"""]</t>
         </is>
       </c>
     </row>
@@ -15224,7 +15224,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>["""DIL""","""DILE""","""drug-induced lupus erythematosus"""]</t>
+          <t>["""DILE""","""drug-induced lupus erythematosus""","""DIL"""]</t>
         </is>
       </c>
     </row>
@@ -15296,7 +15296,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>["""livedoid vasculitis""","""livedoid vasculopathy"""]</t>
+          <t>["""livedoid vasculopathy""","""livedoid vasculitis"""]</t>
         </is>
       </c>
     </row>
@@ -15308,7 +15308,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>["""insulin autoimmune syndrome""","""Hirata disease"""]</t>
+          <t>["""Hirata disease""","""insulin autoimmune syndrome"""]</t>
         </is>
       </c>
     </row>
@@ -15320,7 +15320,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>["""neoprene allergy""","""N,N'-diphenylthiourea allergic contact dermatitis"""]</t>
+          <t>["""N,N'-diphenylthiourea allergic contact dermatitis""","""neoprene allergy"""]</t>
         </is>
       </c>
     </row>
@@ -15380,7 +15380,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>["""Typhoid endocarditis""","""Typhoid myocarditis""","""Typhoid fever with heart involvementTyphoid endocarditis""","""Typhoid fever with heart involvement"""]</t>
+          <t>["""Typhoid myocarditis""","""Typhoid fever with heart involvementTyphoid endocarditis""","""Typhoid fever with heart involvement""","""Typhoid endocarditis"""]</t>
         </is>
       </c>
     </row>
@@ -15536,7 +15536,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>["""extraintestinal yersiniosis""","""Enteritis due to Yersinia enterocolitica"""]</t>
+          <t>["""Enteritis due to Yersinia enterocolitica""","""extraintestinal yersiniosis"""]</t>
         </is>
       </c>
     </row>
@@ -15548,7 +15548,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>["""Enterocolitis due to Clostridium difficile""","""Enterocolitis due to Clostridium difficileFoodborne intoxication by Clostridium difficile""","""Foodborne intoxication by Clostridium difficile""","""Pseudomembraneous colitis"""]</t>
+          <t>["""Enterocolitis due to Clostridium difficile""","""Enterocolitis due to Clostridium difficileFoodborne intoxication by Clostridium difficile""","""Pseudomembraneous colitis""","""Foodborne intoxication by Clostridium difficile"""]</t>
         </is>
       </c>
     </row>
@@ -15584,7 +15584,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>["""Clostridium difficile foodborne intoxication and infection""","""Escherichia coli infection""","""Other bacterial foodborne intoxications, not elsewhere classified""","""listeriosis"""]</t>
+          <t>["""Escherichia coli infection""","""listeriosis""","""Other bacterial foodborne intoxications, not elsewhere classified""","""Clostridium difficile foodborne intoxication and infection"""]</t>
         </is>
       </c>
     </row>
@@ -15596,7 +15596,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>["""Botulism NOS""","""Botulism food poisoning""","""Classical foodborne intoxication due to Clostridium botulinuminfant botulism"""]</t>
+          <t>["""Botulism food poisoning""","""Classical foodborne intoxication due to Clostridium botulinuminfant botulism""","""Botulism NOS"""]</t>
         </is>
       </c>
     </row>
@@ -15608,7 +15608,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>["""Foodborne Clostridium perfringens [Clostridium welchii] intoxication""","""Enteritis necroticansPig-bel""","""Enteritis necroticans""","""Pig-bel"""]</t>
+          <t>["""Foodborne Clostridium perfringens [Clostridium welchii] intoxication""","""Pig-bel""","""Enteritis necroticansPig-bel""","""Enteritis necroticans"""]</t>
         </is>
       </c>
     </row>
@@ -15632,7 +15632,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>["""acanthamebiasisother protozoal intestinal diseases""","""Amebiasis""","""Naegleriasis"""]</t>
+          <t>["""acanthamebiasisother protozoal intestinal diseases""","""Naegleriasis""","""Amebiasis"""]</t>
         </is>
       </c>
     </row>
@@ -15644,7 +15644,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>["""Acute amebic dysentery""","""Intestinal amebiasis NOS""","""Intestinal amebiasis NOSAcute amebic dysentery""","""Acute amebiasis"""]</t>
+          <t>["""Acute amebiasis""","""Intestinal amebiasis NOS""","""Acute amebic dysentery""","""Intestinal amebiasis NOSAcute amebic dysentery"""]</t>
         </is>
       </c>
     </row>
@@ -15680,7 +15680,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>["""Ameboma of intestine""","""Ameboma NOS"""]</t>
+          <t>["""Ameboma NOS""","""Ameboma of intestine"""]</t>
         </is>
       </c>
     </row>
@@ -15692,7 +15692,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>["""Amebic liver abscess""","""Hepatic amebiasis"""]</t>
+          <t>["""Hepatic amebiasis""","""Amebic liver abscess"""]</t>
         </is>
       </c>
     </row>
@@ -15764,7 +15764,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>["""Amebic vulvovaginitisOther amebic genitourinary infections""","""Amebic vesiculitis""","""Other amebic genitourinary infections""","""Amebic vulvovaginitis"""]</t>
+          <t>["""Other amebic genitourinary infections""","""Amebic vulvovaginitis""","""Amebic vesiculitis""","""Amebic vulvovaginitisOther amebic genitourinary infections"""]</t>
         </is>
       </c>
     </row>
@@ -15776,7 +15776,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>["""Amebic appendicitisAmebic splenic abscess""","""Other amebic infections""","""Amebic appendicitis""","""Amebic splenic abscess"""]</t>
+          <t>["""Amebic appendicitis""","""Amebic splenic abscess""","""Amebic appendicitisAmebic splenic abscess""","""Other amebic infections"""]</t>
         </is>
       </c>
     </row>
@@ -15800,7 +15800,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>["""Infection due to Isospora belli and Isospora hominis""","""Isosporiasis""","""Intestinal coccidiosisInfection due to Isospora belli and Isospora hominis""","""Intestinal coccidiosis""","""Isosporosis"""]</t>
+          <t>["""Intestinal coccidiosisInfection due to Isospora belli and Isospora hominis""","""Intestinal coccidiosis""","""Isosporosis""","""Isosporiasis""","""Infection due to Isospora belli and Isospora hominis"""]</t>
         </is>
       </c>
     </row>
@@ -15824,7 +15824,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>["""Other specified protozoal intestinal diseases""","""Intestinal microsporidiosis""","""Intestinal microsporidiosisIntestinal trichomoniasis""","""Intestinal trichomoniasis"""]</t>
+          <t>["""Intestinal microsporidiosis""","""Intestinal microsporidiosisIntestinal trichomoniasis""","""Other specified protozoal intestinal diseases""","""Intestinal trichomoniasis"""]</t>
         </is>
       </c>
     </row>
@@ -15836,7 +15836,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>["""Protozoal diarrheaProtozoal colitis""","""Protozoal colitis""","""Protozoal intestinal disease, unspecified""","""Protozoal diarrhea""","""Flagellate diarrhea"""]</t>
+          <t>["""Protozoal intestinal disease, unspecified""","""Protozoal colitis""","""Protozoal diarrhea""","""Flagellate diarrhea""","""Protozoal diarrheaProtozoal colitis"""]</t>
         </is>
       </c>
     </row>
@@ -15872,7 +15872,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>["""Acute gastroenteropathy due to Norovirus""","""Acute gastroenteropathy due to Norwalk-like agent""","""Acute gastroenteropathy due to Norwalk-like agentAcute gastroenteropathy due to Norovirus""","""Acute gastroenteropathy due to Norwalk agent"""]</t>
+          <t>["""Acute gastroenteropathy due to Norovirus""","""Acute gastroenteropathy due to Norwalk agent""","""Acute gastroenteropathy due to Norwalk-like agentAcute gastroenteropathy due to Norovirus""","""Acute gastroenteropathy due to Norwalk-like agent"""]</t>
         </is>
       </c>
     </row>
@@ -15884,7 +15884,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>["""Acute gastroenteropathy due to small round virus [SRV] NOS""","""Acute gastroenteropathy due to other small round viruses"""]</t>
+          <t>["""Acute gastroenteropathy due to other small round viruses""","""Acute gastroenteropathy due to small round virus [SRV] NOS"""]</t>
         </is>
       </c>
     </row>
@@ -15920,7 +15920,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>["""Enterovirus enteritis NEC""","""Torovirus enteritisEnterovirus enteritis NEC""","""Other viral enteritis""","""Torovirus enteritis"""]</t>
+          <t>["""Enterovirus enteritis NEC""","""Other viral enteritis""","""Torovirus enteritisEnterovirus enteritis NEC""","""Torovirus enteritis"""]</t>
         </is>
       </c>
     </row>
@@ -15932,7 +15932,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>["""Viral gastroenteropathy NOS""","""Viral intestinal infection, unspecified""","""Viral enteritis NOS""","""Viral gastroenteritis NOSViral gastroenteropathy NOS""","""Viral gastroenteritis NOS"""]</t>
+          <t>["""Viral gastroenteritis NOSViral gastroenteropathy NOS""","""Viral gastroenteritis NOS""","""Viral gastroenteropathy NOS""","""Viral enteritis NOS""","""Viral intestinal infection, unspecified"""]</t>
         </is>
       </c>
     </row>
@@ -15944,7 +15944,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>["""Infectious enteritis NOS""","""Infectious gastroenteritis and colitis, unspecified""","""Infectious colitis NOS""","""diarrhea NOS""","""Infectious gastroenteritis NOScolitis NOS"""]</t>
+          <t>["""diarrhea NOS""","""Infectious enteritis NOS""","""Infectious colitis NOS""","""Infectious gastroenteritis and colitis, unspecified""","""Infectious gastroenteritis NOScolitis NOS"""]</t>
         </is>
       </c>
     </row>
@@ -15968,7 +15968,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>["""Tuberculous pneumothorax""","""Tuberculosis of lung""","""Tuberculous bronchiectasis""","""Tuberculous bronchiectasisTuberculous fibrosis of lung""","""Tuberculous fibrosis of lung"""]</t>
+          <t>["""Tuberculous fibrosis of lung""","""Tuberculous pneumothorax""","""Tuberculous bronchiectasisTuberculous fibrosis of lung""","""Tuberculosis of lung""","""Tuberculous bronchiectasis"""]</t>
         </is>
       </c>
     </row>
@@ -15980,7 +15980,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>["""Tuberculosis of glottisTuberculosis of larynx""","""Tuberculosis of glottis""","""Tuberculosis of larynx""","""Tuberculosis of bronchus""","""Tuberculosis of larynx, trachea and bronchus"""]</t>
+          <t>["""Tuberculosis of glottisTuberculosis of larynx""","""Tuberculosis of bronchus""","""Tuberculosis of larynx""","""Tuberculosis of glottis""","""Tuberculosis of larynx, trachea and bronchus"""]</t>
         </is>
       </c>
     </row>
@@ -15992,7 +15992,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>["""Other respiratory tuberculosis""","""Nasopharyngeal tuberculosis""","""Tuberculosis of sinus [any nasal]""","""Nasopharyngeal tuberculosisTuberculosis of nose""","""Tuberculosis of nose"""]</t>
+          <t>["""Other respiratory tuberculosis""","""Tuberculosis of sinus [any nasal]""","""Tuberculosis of nose""","""Nasopharyngeal tuberculosisTuberculosis of nose""","""Nasopharyngeal tuberculosis"""]</t>
         </is>
       </c>
     </row>
@@ -16064,7 +16064,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>["""Tuberculous arthritis""","""Tuberculosis of spine""","""Tuberculous spondylitis""","""Tuberculous arthritisTuberculous spondylitis""","""Tuberculous osteomyelitis of spine"""]</t>
+          <t>["""Tuberculosis of spine""","""Tuberculous arthritis""","""Tuberculous osteomyelitis of spine""","""Tuberculous spondylitis""","""Tuberculous arthritisTuberculous spondylitis"""]</t>
         </is>
       </c>
     </row>
@@ -16076,7 +16076,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>["""Tuberculosis of hip (joint)""","""Tuberculous arthritis of other joints""","""Tuberculosis of knee (joint)""","""Tuberculosis of knee (joint)Tuberculous arthritis of other joints"""]</t>
+          <t>["""Tuberculosis of knee (joint)""","""Tuberculous arthritis of other joints""","""Tuberculosis of knee (joint)Tuberculous arthritis of other joints""","""Tuberculosis of hip (joint)"""]</t>
         </is>
       </c>
     </row>
@@ -16088,7 +16088,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>["""Tuberculous synovitis""","""Tuberculous myositis""","""Other musculoskeletal tuberculosis""","""Tuberculous synovitisTuberculous myositis"""]</t>
+          <t>["""Other musculoskeletal tuberculosis""","""Tuberculous myositis""","""Tuberculous synovitisTuberculous myositis""","""Tuberculous synovitis"""]</t>
         </is>
       </c>
     </row>
@@ -16148,7 +16148,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>["""Tuberculous urethritis""","""Tuberculosis of other urinary organs"""]</t>
+          <t>["""Tuberculosis of other urinary organs""","""Tuberculous urethritis"""]</t>
         </is>
       </c>
     </row>
@@ -16196,7 +16196,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>["""Tuberculous female pelvic inflammatory disease""","""Tuberculous female pelvic inflammatory diseaseTuberculous oophoritis and salpingitis""","""Tuberculous endometritis""","""Tuberculous oophoritis and salpingitis"""]</t>
+          <t>["""Tuberculous oophoritis and salpingitis""","""Tuberculous female pelvic inflammatory diseaseTuberculous oophoritis and salpingitis""","""Tuberculous endometritis""","""Tuberculous female pelvic inflammatory disease"""]</t>
         </is>
       </c>
     </row>
@@ -16208,7 +16208,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>["""Tuberculosis of other female genital organs""","""Tuberculous ulceration of vulva"""]</t>
+          <t>["""Tuberculous ulceration of vulva""","""Tuberculosis of other female genital organs"""]</t>
         </is>
       </c>
     </row>
@@ -16232,3079 +16232,3091 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>["""Tuberculous ascites""","""Tuberculous peritonitis"""]</t>
+          <t>["""Tuberculous peritonitis""","""Tuberculous ascites"""]</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>ICD10_CM:A18.50</t>
+          <t>ICD10_CM:A18.39</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>["""Tuberculosis of eye, unspecified"""]</t>
+          <t>["""Tuberculosis of mesenteric glands""","""Retroperitoneal tuberculosis""","""Tuberculosis of mesenteric glandsTuberculosis of retroperitoneal (lymph glands)""","""Tuberculosis of retroperitoneal (lymph glands)"""]</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>ICD10_CM:A18.51</t>
+          <t>ICD10_CM:A18.50</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>["""Tuberculous episcleritis"""]</t>
+          <t>["""Tuberculosis of eye, unspecified"""]</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>ICD10_CM:A18.52</t>
+          <t>ICD10_CM:A18.51</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>["""Tuberculous keratitis""","""Tuberculous keratitisTuberculous keratoconjunctivitis (interstitial) (phlyctenular)""","""Tuberculous keratoconjunctivitis (interstitial) (phlyctenular)""","""Tuberculous interstitial keratitis"""]</t>
+          <t>["""Tuberculous episcleritis"""]</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>ICD10_CM:A18.53</t>
+          <t>ICD10_CM:A18.52</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>["""Tuberculous chorioretinitis"""]</t>
+          <t>["""Tuberculous keratoconjunctivitis (interstitial) (phlyctenular)""","""Tuberculous keratitisTuberculous keratoconjunctivitis (interstitial) (phlyctenular)""","""Tuberculous interstitial keratitis""","""Tuberculous keratitis"""]</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>ICD10_CM:A18.54</t>
+          <t>ICD10_CM:A18.53</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>["""Tuberculous iridocyclitis"""]</t>
+          <t>["""Tuberculous chorioretinitis"""]</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>ICD10_CM:A18.59</t>
+          <t>ICD10_CM:A18.54</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>["""Other tuberculosis of eye""","""Tuberculous conjunctivitis"""]</t>
+          <t>["""Tuberculous iridocyclitis"""]</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>ICD10_CM:A18.7</t>
+          <t>ICD10_CM:A18.59</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>["""Tuberculosis of adrenal glands""","""Tuberculous Addison's disease"""]</t>
+          <t>["""Tuberculous conjunctivitis""","""Other tuberculosis of eye"""]</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>ICD10_CM:A18.8</t>
+          <t>ICD10_CM:A18.7</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>["""Tuberculosis of other specified organs"""]</t>
+          <t>["""Tuberculous Addison's disease""","""Tuberculosis of adrenal glands"""]</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>ICD10_CM:A18.81</t>
+          <t>ICD10_CM:A18.8</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>["""Tuberculosis of thyroid gland"""]</t>
+          <t>["""Tuberculosis of other specified organs"""]</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>ICD10_CM:A18.82</t>
+          <t>ICD10_CM:A18.81</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>["""Tuberculosis of other endocrine glandsTuberculosis of pituitary gland""","""Tuberculosis of other endocrine glands""","""Tuberculosis of pituitary gland""","""Tuberculosis of thymus gland"""]</t>
+          <t>["""Tuberculosis of thyroid gland"""]</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>ICD10_CM:A18.84</t>
+          <t>ICD10_CM:A18.82</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>["""Tuberculosis of heart""","""Tuberculous endocarditis""","""Tuberculous myocarditis""","""Tuberculous myocarditisTuberculous endocarditis""","""Tuberculous pericarditis"""]</t>
+          <t>["""Tuberculosis of other endocrine glandsTuberculosis of pituitary gland""","""Tuberculosis of thymus gland""","""Tuberculosis of pituitary gland""","""Tuberculosis of other endocrine glands"""]</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>ICD10_CM:A18.85</t>
+          <t>ICD10_CM:A18.84</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>["""Tuberculosis of spleen"""]</t>
+          <t>["""Tuberculous pericarditis""","""Tuberculous myocarditisTuberculous endocarditis""","""Tuberculous endocarditis""","""Tuberculosis of heart""","""Tuberculous myocarditis"""]</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>ICD10_CM:A18.89</t>
+          <t>ICD10_CM:A18.85</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>["""Tuberculosis of other sites""","""Tuberculous cerebral arteritis""","""Tuberculosis of muscleTuberculous cerebral arteritis""","""Tuberculosis of muscle"""]</t>
+          <t>["""Tuberculosis of spleen"""]</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>ICD10_CM:A20</t>
+          <t>ICD10_CM:A18.89</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>["""Plague"""]</t>
+          <t>["""Tuberculous cerebral arteritis""","""Tuberculosis of muscleTuberculous cerebral arteritis""","""Tuberculosis of other sites""","""Tuberculosis of muscle"""]</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>ICD10_CM:A20.7</t>
+          <t>ICD10_CM:A20</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>["""Septicemic plague"""]</t>
+          <t>["""Plague"""]</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>ICD10_CM:A20.8</t>
+          <t>ICD10_CM:A20.7</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>["""Abortive plague""","""Pestis minor""","""Other forms of plague""","""Abortive plagueOther forms of plague"""]</t>
+          <t>["""Septicemic plague"""]</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>ICD10_CM:A21</t>
+          <t>ICD10_CM:A20.8</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>["""Tularemia"""]</t>
+          <t>["""Other forms of plague""","""Pestis minor""","""Abortive plagueOther forms of plague""","""Abortive plague"""]</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>ICD10_CM:A21.0</t>
+          <t>ICD10_CM:A21</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>["""Ulceroglandular tularemia"""]</t>
+          <t>["""Tularemia"""]</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>ICD10_CM:A21.1</t>
+          <t>ICD10_CM:A21.0</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>["""Ophthalmic tularemia""","""Oculoglandular tularemia"""]</t>
+          <t>["""Ulceroglandular tularemia"""]</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>ICD10_CM:A21.2</t>
+          <t>ICD10_CM:A21.1</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>["""Pulmonary tularemia"""]</t>
+          <t>["""Ophthalmic tularemia""","""Oculoglandular tularemia"""]</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>ICD10_CM:A21.3</t>
+          <t>ICD10_CM:A21.2</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>["""Gastrointestinal tularemia""","""Abdominal tularemia"""]</t>
+          <t>["""Pulmonary tularemia"""]</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>ICD10_CM:A21.7</t>
+          <t>ICD10_CM:A21.3</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>["""Generalized tularemia"""]</t>
+          <t>["""Abdominal tularemia""","""Gastrointestinal tularemia"""]</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>ICD10_CM:A21.8</t>
+          <t>ICD10_CM:A21.7</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>["""Other forms of tularemia"""]</t>
+          <t>["""Generalized tularemia"""]</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>ICD10_CM:A21.9</t>
+          <t>ICD10_CM:A21.8</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>["""Tularemia, unspecified"""]</t>
+          <t>["""Other forms of tularemia"""]</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>ICD10_CM:A22</t>
+          <t>ICD10_CM:A21.9</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>["""Anthrax"""]</t>
+          <t>["""Tularemia, unspecified"""]</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>ICD10_CM:A22.0</t>
+          <t>ICD10_CM:A22</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>["""Malignant pustule""","""Cutaneous anthrax""","""Malignant carbuncle""","""Malignant carbuncleCutaneous anthrax"""]</t>
+          <t>["""Anthrax"""]</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>ICD10_CM:A22.1</t>
+          <t>ICD10_CM:A22.0</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>["""Pulmonary anthrax""","""Ragpicker's disease""","""Ragpicker's diseasePulmonary anthrax""","""Inhalation anthrax"""]</t>
+          <t>["""Cutaneous anthrax""","""Malignant carbuncleCutaneous anthrax""","""Malignant pustule""","""Malignant carbuncle"""]</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>ICD10_CM:A22.8</t>
+          <t>ICD10_CM:A22.1</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>["""Anthrax meningitis""","""Other forms of anthrax"""]</t>
+          <t>["""Pulmonary anthrax""","""Ragpicker's diseasePulmonary anthrax""","""Ragpicker's disease""","""Inhalation anthrax"""]</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>ICD10:A02</t>
+          <t>ICD10_CM:A22.8</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>["""infection or foodborne intoxication due to any Salmonella species other than S. typhi and S. paratyphi""","""Other salmonella infections"""]</t>
+          <t>["""Other forms of anthrax""","""Anthrax meningitis"""]</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>ICD10:A02.2</t>
+          <t>ICD10:A02</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>["""Salmonella: osteomyelitisM90.2""","""Localized salmonella infections""","""Salmonella: renal tubulo-interstitial diseaseN16.0""","""Salmonella: meningitisG01""","""Salmonella: arthritisM01.3""","""Salmonella: pneumoniaJ17.0"""]</t>
+          <t>["""Other salmonella infections""","""infection or foodborne intoxication due to any Salmonella species other than S. typhi and S. paratyphi"""]</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>ICD10:A04</t>
+          <t>ICD10:A02.2</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>["""tuberculous enteritisA18.3""","""foodborne intoxications elsewhere classified""","""Other bacterial intestinal infections"""]</t>
+          <t>["""Salmonella: meningitisG01""","""Salmonella: osteomyelitisM90.2""","""Localized salmonella infections""","""Salmonella: pneumoniaJ17.0""","""Salmonella: renal tubulo-interstitial diseaseN16.0""","""Salmonella: arthritisM01.3"""]</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>ICD10:A04.3</t>
+          <t>ICD10:A04</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>["""Enterohaemorrhagic Escherichia coli infection"""]</t>
+          <t>["""tuberculous enteritisA18.3""","""foodborne intoxications elsewhere classified""","""Other bacterial intestinal infections"""]</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>ICD10:A04.6</t>
+          <t>ICD10:A04.3</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>["""extraintestinal yersiniosisA28.2""","""Enteritis due to Yersinia enterocolitica"""]</t>
+          <t>["""Enterohaemorrhagic Escherichia coli infection"""]</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>ICD10:A04.7</t>
+          <t>ICD10:A04.6</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>["""Enterocolitis due to Clostridium difficile""","""Pseudomembranous colitis""","""Foodborne intoxication by Clostridium difficile"""]</t>
+          <t>["""Enteritis due to Yersinia enterocolitica""","""extraintestinal yersiniosisA28.2"""]</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>ICD10:A05</t>
+          <t>ICD10:A04.7</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>["""Escherichia coli infectionA04.0-A04.4""","""listeriosisA32.-""","""Other bacterial foodborne intoxications, not elsewhere classified""","""Clostridium difficile foodborne intoxication and infectionA04.7""","""salmonella foodborne intoxication and infectionA02.-""","""toxic effect of noxious foodstuffsT61-T62"""]</t>
+          <t>["""Enterocolitis due to Clostridium difficile""","""Foodborne intoxication by Clostridium difficile""","""Pseudomembranous colitis"""]</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>ICD10:A05.1</t>
+          <t>ICD10:A05</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>["""Classical foodborne intoxication due to Clostridium botulinum""","""Botulism"""]</t>
+          <t>["""listeriosisA32.-""","""salmonella foodborne intoxication and infectionA02.-""","""Clostridium difficile foodborne intoxication and infectionA04.7""","""Other bacterial foodborne intoxications, not elsewhere classified""","""Escherichia coli infectionA04.0-A04.4""","""toxic effect of noxious foodstuffsT61-T62"""]</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>ICD10:A05.2</t>
+          <t>ICD10:A05.1</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>["""Foodborne Clostridium perfringens [Clostridium welchii] intoxication""","""Enteritis necroticans""","""Pig-bel"""]</t>
+          <t>["""Botulism""","""Classical foodborne intoxication due to Clostridium botulinum"""]</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>ICD10:A06</t>
+          <t>ICD10:A05.2</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>["""other protozoal intestinal diseasesA07.-""","""infection due to Entamoeba histolytica""","""Amoebiasis"""]</t>
+          <t>["""Foodborne Clostridium perfringens [Clostridium welchii] intoxication""","""Pig-bel""","""Enteritis necroticans"""]</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>ICD10:A06.0</t>
+          <t>ICD10:A06</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>["""Intestinal amoebiasis NOS""","""Acute amoebiasis""","""Acute amoebic dysentery"""]</t>
+          <t>["""Amoebiasis""","""other protozoal intestinal diseasesA07.-""","""infection due to Entamoeba histolytica"""]</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>ICD10:A06.1</t>
+          <t>ICD10:A06.0</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>["""Chronic intestinal amoebiasis"""]</t>
+          <t>["""Intestinal amoebiasis NOS""","""Acute amoebic dysentery""","""Acute amoebiasis"""]</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>ICD10:A06.2</t>
+          <t>ICD10:A06.1</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>["""Amoebic nondysenteric colitis"""]</t>
+          <t>["""Chronic intestinal amoebiasis"""]</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>ICD10:A06.3</t>
+          <t>ICD10:A06.2</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>["""Amoeboma NOS""","""Amoeboma of intestine"""]</t>
+          <t>["""Amoebic nondysenteric colitis"""]</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>ICD10:A06.4</t>
+          <t>ICD10:A06.3</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>["""Hepatic amoebiasis""","""Amoebic liver abscessK77.0"""]</t>
+          <t>["""Amoeboma of intestine""","""Amoeboma NOS"""]</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>ICD10:A06.5</t>
+          <t>ICD10:A06.4</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>["""Amoebic abscess of lung (and liver)""","""Amoebic lung abscessJ99.8"""]</t>
+          <t>["""Amoebic liver abscessK77.0""","""Hepatic amoebiasis"""]</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>ICD10:A06.6</t>
+          <t>ICD10:A06.5</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>["""Amoebic abscess of brain (and liver)(and lung)""","""Amoebic brain abscessG07"""]</t>
+          <t>["""Amoebic abscess of lung (and liver)""","""Amoebic lung abscessJ99.8"""]</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>ICD10:A06.7</t>
+          <t>ICD10:A06.6</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>["""Cutaneous amoebiasis"""]</t>
+          <t>["""Amoebic abscess of brain (and liver)(and lung)""","""Amoebic brain abscessG07"""]</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>ICD10:A06.8</t>
+          <t>ICD10:A06.7</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>["""Amoebic: balanitisN51.2""","""Amoebic infection of other sites""","""Amoebic: appendicitis"""]</t>
+          <t>["""Cutaneous amoebiasis"""]</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>ICD10:A06.9</t>
+          <t>ICD10:A06.8</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>["""Amoebiasis, unspecified"""]</t>
+          <t>["""Amoebic infection of other sites""","""Amoebic: appendicitis""","""Amoebic: balanitisN51.2"""]</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>ICD10:A07.3</t>
+          <t>ICD10:A06.9</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>["""Infection due to Isospora belli and Isospora hominis""","""Isosporiasis""","""Intestinal coccidiosis""","""Isosporosis"""]</t>
+          <t>["""Amoebiasis, unspecified"""]</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>ICD10:A07.8</t>
+          <t>ICD10:A07.3</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>["""Other specified protozoal intestinal diseases""","""Sarcocystosis""","""Sarcosporidiosis""","""Intestinal trichomoniasis"""]</t>
+          <t>["""Isosporiasis""","""Infection due to Isospora belli and Isospora hominis""","""Isosporosis""","""Intestinal coccidiosis"""]</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>ICD10:A07.9</t>
+          <t>ICD10:A07.8</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>["""Protozoal: dysentery""","""Flagellate diarrhoea""","""Protozoal: colitis""","""Protozoal intestinal disease, unspecified""","""Protozoal: diarrhoea"""]</t>
+          <t>["""Sarcosporidiosis""","""Other specified protozoal intestinal diseases""","""Intestinal trichomoniasis""","""Sarcocystosis"""]</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>ICD10:A08</t>
+          <t>ICD10:A07.9</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>["""influenza with involvement of gastrointestinal tractJ09J10.8J11.8""","""Viral and other specified intestinal infections"""]</t>
+          <t>["""Protozoal: diarrhoea""","""Protozoal intestinal disease, unspecified""","""Protozoal: colitis""","""Protozoal: dysentery""","""Flagellate diarrhoea"""]</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>ICD10:A08.1</t>
+          <t>ICD10:A08</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>["""Acute gastroenteropathy due to Norwalk agent""","""Small round structured virus enteritis"""]</t>
+          <t>["""influenza with involvement of gastrointestinal tractJ09J10.8J11.8""","""Viral and other specified intestinal infections"""]</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>ICD10:A08.4</t>
+          <t>ICD10:A08.1</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>["""Viral: gastroenteropathy NOS""","""Viral intestinal infection, unspecified""","""Viral: gastroenteritis NOS""","""Viral: enteritis NOS"""]</t>
+          <t>["""Acute gastroenteropathy due to Norwalk agent""","""Small round structured virus enteritis"""]</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>ICD10:A09</t>
+          <t>ICD10:A08.4</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>["""Other gastroenteritis and colitis of infectious and unspecified origin""","""noninfective (see noninfectious) diarrhoea neonatalP78.3""","""noninfective (see noninfectious) diarrhoeaK52.9""","""due to bacterial, protozoal, viral and other specified infectious agentsA00-A08"""]</t>
+          <t>["""Viral: enteritis NOS""","""Viral: gastroenteropathy NOS""","""Viral intestinal infection, unspecified""","""Viral: gastroenteritis NOS"""]</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>ICD10:A09.0</t>
+          <t>ICD10:A09</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>["""Infectious or septic colitis haemorrhagic""","""Diarrhoea: epidemic""","""Infectious diarrhoea NOS""","""Infectious or septic enteritis NOS""","""Diarrhoea: acute haemorrhagic""","""Other and unspecified gastroenteritis and colitis of infectious origin""","""Infectious or septic gastroenteritis haemorrhagic"""]</t>
+          <t>["""noninfective (see noninfectious) diarrhoeaK52.9""","""due to bacterial, protozoal, viral and other specified infectious agentsA00-A08""","""Other gastroenteritis and colitis of infectious and unspecified origin""","""noninfective (see noninfectious) diarrhoea neonatalP78.3"""]</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>ICD10:A09.9</t>
+          <t>ICD10:A09.0</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>["""Gastroenteritis and colitis of unspecified origin""","""Neonatal diarrhoea NOS"""]</t>
+          <t>["""Diarrhoea: acute haemorrhagic""","""Infectious or septic gastroenteritis haemorrhagic""","""Infectious diarrhoea NOS""","""Diarrhoea: epidemic""","""Other and unspecified gastroenteritis and colitis of infectious origin""","""Infectious or septic enteritis NOS""","""Infectious or septic colitis haemorrhagic"""]</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>ICD10:A15.0</t>
+          <t>ICD10:A09.9</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>["""Tuberculous: fibrosis of lung confirmed by sputum microscopy with or without culture""","""Tuberculous: pneumothorax confirmed by sputum microscopy with or without culture""","""Tuberculosis of lung, confirmed by sputum microscopy with or without culture""","""Tuberculous: pneumonia confirmed by sputum microscopy with or without culture""","""Tuberculous: bronchiectasis confirmed by sputum microscopy with or without culture"""]</t>
+          <t>["""Neonatal diarrhoea NOS""","""Gastroenteritis and colitis of unspecified origin"""]</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>ICD10:A15.1</t>
+          <t>ICD10:A15.0</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>["""Tuberculosis of lung, confirmed by culture only""","""Conditions listed in A15.0, confirmed by culture only"""]</t>
+          <t>["""Tuberculosis of lung, confirmed by sputum microscopy with or without culture""","""Tuberculous: pneumonia confirmed by sputum microscopy with or without culture""","""Tuberculous: bronchiectasis confirmed by sputum microscopy with or without culture""","""Tuberculous: pneumothorax confirmed by sputum microscopy with or without culture""","""Tuberculous: fibrosis of lung confirmed by sputum microscopy with or without culture"""]</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>ICD10:A15.2</t>
+          <t>ICD10:A15.1</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>["""Tuberculosis of lung, confirmed histologically""","""Conditions listed in A15.0, confirmed histologically"""]</t>
+          <t>["""Conditions listed in A15.0, confirmed by culture only""","""Tuberculosis of lung, confirmed by culture only"""]</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>ICD10:A15.3</t>
+          <t>ICD10:A15.2</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>["""Tuberculosis of lung, confirmed by unspecified means""","""Conditions listed in A15.0, confirmed but unspecified whether bacteriologically or histologically"""]</t>
+          <t>["""Tuberculosis of lung, confirmed histologically""","""Conditions listed in A15.0, confirmed histologically"""]</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>ICD10:A15.4</t>
+          <t>ICD10:A15.3</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>["""Tuberculosis of lymph nodes: mediastinal confirmed bacteriologically and histologically""","""Tuberculosis of lymph nodes: hilar confirmed bacteriologically and histologically""","""Tuberculosis of intrathoracic lymph nodes, confirmed bacteriologically and histologically""","""specified as primaryA15.7""","""Tuberculosis of lymph nodes: tracheobronchial confirmed bacteriologically and histologically"""]</t>
+          <t>["""Conditions listed in A15.0, confirmed but unspecified whether bacteriologically or histologically""","""Tuberculosis of lung, confirmed by unspecified means"""]</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>ICD10:A15.5</t>
+          <t>ICD10:A15.4</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>["""Tuberculosis of: larynx confirmed bacteriologically and histologically""","""Tuberculosis of larynx, trachea and bronchus, confirmed bacteriologically and histologically""","""Tuberculosis of: bronchus confirmed bacteriologically and histologically""","""Tuberculosis of: trachea confirmed bacteriologically and histologically""","""Tuberculosis of: glottis confirmed bacteriologically and histologically"""]</t>
+          <t>["""Tuberculosis of lymph nodes: hilar confirmed bacteriologically and histologically""","""Tuberculosis of intrathoracic lymph nodes, confirmed bacteriologically and histologically""","""Tuberculosis of lymph nodes: tracheobronchial confirmed bacteriologically and histologically""","""specified as primaryA15.7""","""Tuberculosis of lymph nodes: mediastinal confirmed bacteriologically and histologically"""]</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>ICD10:A15.6</t>
+          <t>ICD10:A15.5</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>["""Tuberculosis of pleura confirmed bacteriologically and histologically""","""Tuberculous empyema confirmed bacteriologically and histologically""","""Tuberculous pleurisy, confirmed bacteriologically and histologically""","""in primary respiratory tuberculosis, confirmed bacteriologically and histologicallyA15.7"""]</t>
+          <t>["""Tuberculosis of larynx, trachea and bronchus, confirmed bacteriologically and histologically""","""Tuberculosis of: larynx confirmed bacteriologically and histologically""","""Tuberculosis of: glottis confirmed bacteriologically and histologically""","""Tuberculosis of: trachea confirmed bacteriologically and histologically""","""Tuberculosis of: bronchus confirmed bacteriologically and histologically"""]</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>ICD10:A15.7</t>
+          <t>ICD10:A15.6</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>["""Primary respiratory tuberculosis, confirmed bacteriologically and histologically"""]</t>
+          <t>["""Tuberculosis of pleura confirmed bacteriologically and histologically""","""Tuberculous pleurisy, confirmed bacteriologically and histologically""","""Tuberculous empyema confirmed bacteriologically and histologically""","""in primary respiratory tuberculosis, confirmed bacteriologically and histologicallyA15.7"""]</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>ICD10:A15.8</t>
+          <t>ICD10:A15.7</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>["""Mediastinal tuberculosis confirmed bacteriologically and histologically""","""Nasopharyngeal tuberculosis confirmed bacteriologically and histologically""","""Tuberculosis of: sinus [any nasal] confirmed bacteriologically and histologically""","""Other respiratory tuberculosis, confirmed bacteriologically and histologically""","""Tuberculosis of: nose confirmed bacteriologically and histologically"""]</t>
+          <t>["""Primary respiratory tuberculosis, confirmed bacteriologically and histologically"""]</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>ICD10:A15.9</t>
+          <t>ICD10:A15.8</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>["""Respiratory tuberculosis unspecified, confirmed bacteriologically and histologically"""]</t>
+          <t>["""Other respiratory tuberculosis, confirmed bacteriologically and histologically""","""Nasopharyngeal tuberculosis confirmed bacteriologically and histologically""","""Tuberculosis of: nose confirmed bacteriologically and histologically""","""Tuberculosis of: sinus [any nasal] confirmed bacteriologically and histologically""","""Mediastinal tuberculosis confirmed bacteriologically and histologically"""]</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>ICD10:A16.0</t>
+          <t>ICD10:A15.9</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>["""Tuberculous: fibrosis of lung bacteriologically and histologically negative""","""Tuberculosis of lung, bacteriologically and histologically negative""","""Tuberculous: pneumothorax bacteriologically and histologically negative""","""Tuberculous: pneumonia bacteriologically and histologically negative""","""Tuberculous: bronchiectasis bacteriologically and histologically negative"""]</t>
+          <t>["""Respiratory tuberculosis unspecified, confirmed bacteriologically and histologically"""]</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>ICD10:A16.1</t>
+          <t>ICD10:A16.0</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>["""Conditions listed in A16.0, bacteriological and histological examination not done""","""Tuberculosis of lung, bacteriological and histological examination not done"""]</t>
+          <t>["""Tuberculous: pneumothorax bacteriologically and histologically negative""","""Tuberculous: fibrosis of lung bacteriologically and histologically negative""","""Tuberculosis of lung, bacteriologically and histologically negative""","""Tuberculous: pneumonia bacteriologically and histologically negative""","""Tuberculous: bronchiectasis bacteriologically and histologically negative"""]</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>ICD10:A16.2</t>
+          <t>ICD10:A16.1</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>["""Tuberculous: pneumothorax NOS (without mention of bacteriological or histological confirmation)""","""Tuberculosis of lung NOS (without mention of bacteriological or histological confirmation)""","""Tuberculosis of lung, without mention of bacteriological or histological confirmation""","""Tuberculous: bronchiectasis NOS (without mention of bacteriological or histological confirmation)""","""Tuberculous: fibrosis of lung NOS (without mention of bacteriological or histological confirmation)""","""Tuberculous: pneumonia NOS (without mention of bacteriological or histological confirmation)"""]</t>
+          <t>["""Conditions listed in A16.0, bacteriological and histological examination not done""","""Tuberculosis of lung, bacteriological and histological examination not done"""]</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>ICD10:A16.3</t>
+          <t>ICD10:A16.2</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>["""when specified as primaryA16.7""","""Tuberculosis of intrathoracic lymph nodes, without mention of bacteriological or histological confirmation""","""Tuberculosis of lymph nodes: tracheobronchial NOS (without mention of bacteriological or histological confirmation)""","""Tuberculosis of lymph nodes: hilar NOS (without mention of bacteriological or histological confirmation)""","""Tuberculosis of lymph nodes: mediastinal NOS (without mention of bacteriological or histological confirmation)""","""Tuberculosis of lymph nodes: intrathoracic NOS (without mention of bacteriological or histological confirmation)"""]</t>
+          <t>["""Tuberculosis of lung, without mention of bacteriological or histological confirmation""","""Tuberculous: pneumothorax NOS (without mention of bacteriological or histological confirmation)""","""Tuberculosis of lung NOS (without mention of bacteriological or histological confirmation)""","""Tuberculous: fibrosis of lung NOS (without mention of bacteriological or histological confirmation)""","""Tuberculous: bronchiectasis NOS (without mention of bacteriological or histological confirmation)""","""Tuberculous: pneumonia NOS (without mention of bacteriological or histological confirmation)"""]</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>ICD10:A16.4</t>
+          <t>ICD10:A16.3</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>["""Tuberculosis of: trachea NOS (without mention of bacteriological or histological confirmation)""","""Tuberculosis of: bronchus NOS (without mention of bacteriological or histological confirmation)""","""Tuberculosis of: glottis NOS (without mention of bacteriological or histological confirmation)""","""Tuberculosis of larynx, trachea and bronchus, without mention of bacteriological or histological confirmation""","""Tuberculosis of: larynx NOS (without mention of bacteriological or histological confirmation)"""]</t>
+          <t>["""Tuberculosis of lymph nodes: mediastinal NOS (without mention of bacteriological or histological confirmation)""","""when specified as primaryA16.7""","""Tuberculosis of lymph nodes: intrathoracic NOS (without mention of bacteriological or histological confirmation)""","""Tuberculosis of lymph nodes: hilar NOS (without mention of bacteriological or histological confirmation)""","""Tuberculosis of lymph nodes: tracheobronchial NOS (without mention of bacteriological or histological confirmation)""","""Tuberculosis of intrathoracic lymph nodes, without mention of bacteriological or histological confirmation"""]</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>ICD10:A16.5</t>
+          <t>ICD10:A16.4</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>["""Tuberculous: pleurisy NOS (without mention of bacteriological or histological confirmation)""","""in primary respiratory tuberculosisA16.7""","""Tuberculosis of pleura NOS (without mention of bacteriological or histological confirmation)""","""Tuberculous pleurisy, without mention of bacteriological or histological confirmation""","""Tuberculous: empyema NOS (without mention of bacteriological or histological confirmation)"""]</t>
+          <t>["""Tuberculosis of: glottis NOS (without mention of bacteriological or histological confirmation)""","""Tuberculosis of: trachea NOS (without mention of bacteriological or histological confirmation)""","""Tuberculosis of: larynx NOS (without mention of bacteriological or histological confirmation)""","""Tuberculosis of larynx, trachea and bronchus, without mention of bacteriological or histological confirmation""","""Tuberculosis of: bronchus NOS (without mention of bacteriological or histological confirmation)"""]</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>ICD10:A16.7</t>
+          <t>ICD10:A16.5</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>["""Primary: respiratory tuberculosis NOS""","""Primary respiratory tuberculosis without mention of bacteriological or histological confirmation""","""Primary: tuberculous complex"""]</t>
+          <t>["""Tuberculous: pleurisy NOS (without mention of bacteriological or histological confirmation)""","""in primary respiratory tuberculosisA16.7""","""Tuberculous: empyema NOS (without mention of bacteriological or histological confirmation)""","""Tuberculosis of pleura NOS (without mention of bacteriological or histological confirmation)""","""Tuberculous pleurisy, without mention of bacteriological or histological confirmation"""]</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>ICD10:A16.8</t>
+          <t>ICD10:A16.7</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>["""Tuberculosis of: sinus [any nasal] NOS (without mention of bacteriological or histological confirmation)""","""Nasopharyngeal tuberculosis NOS (without mention of bacteriological or histological confirmation)""","""Tuberculosis of: nose NOS (without mention of bacteriological or histological confirmation)""","""Mediastinal tuberculosis NOS (without mention of bacteriological or histological confirmation)""","""Other respiratory tuberculosis, without mention of bacteriological or histological confirmation"""]</t>
+          <t>["""Primary: respiratory tuberculosis NOS""","""Primary: tuberculous complex""","""Primary respiratory tuberculosis without mention of bacteriological or histological confirmation"""]</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>ICD10:A16.9</t>
+          <t>ICD10:A16.8</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>["""Tuberculosis NOS""","""Respiratory tuberculosis unspecified, without mention of bacteriological or histological confirmation""","""Respiratory tuberculosis NOS"""]</t>
+          <t>["""Other respiratory tuberculosis, without mention of bacteriological or histological confirmation""","""Mediastinal tuberculosis NOS (without mention of bacteriological or histological confirmation)""","""Tuberculosis of: nose NOS (without mention of bacteriological or histological confirmation)""","""Tuberculosis of: sinus [any nasal] NOS (without mention of bacteriological or histological confirmation)""","""Nasopharyngeal tuberculosis NOS (without mention of bacteriological or histological confirmation)"""]</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>ICD10:A17.0</t>
+          <t>ICD10:A16.9</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>["""Tuberculous meningitisG01""","""Tuberculosis of meninges (cerebral)(spinal)""","""Tuberculous leptomeningitis"""]</t>
+          <t>["""Respiratory tuberculosis NOS""","""Tuberculosis NOS""","""Respiratory tuberculosis unspecified, without mention of bacteriological or histological confirmation"""]</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>ICD10:A17.1</t>
+          <t>ICD10:A17.0</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>["""Meningeal tuberculomaG07""","""Tuberculoma of meninges"""]</t>
+          <t>["""Tuberculous meningitisG01""","""Tuberculous leptomeningitis""","""Tuberculosis of meninges (cerebral)(spinal)"""]</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>ICD10:A17.8</t>
+          <t>ICD10:A17.1</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>["""Tuberculoma of brainG07""","""Other tuberculosis of nervous system""","""Tuberculoma of spinal cordG07""","""Tuberculous: meningoencephalitisG05.0""","""Tuberculous: abscess of brainG07""","""Tuberculous: myelitisG05.0"""]</t>
+          <t>["""Meningeal tuberculomaG07""","""Tuberculoma of meninges"""]</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>ICD10:A17.9</t>
+          <t>ICD10:A17.8</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>["""Tuberculosis of nervous system, unspecifiedG99.8"""]</t>
+          <t>["""Tuberculous: meningoencephalitisG05.0""","""Tuberculous: myelitisG05.0""","""Tuberculoma of brainG07""","""Tuberculous: abscess of brainG07""","""Tuberculoma of spinal cordG07""","""Other tuberculosis of nervous system"""]</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>ICD10:A18.0</t>
+          <t>ICD10:A17.9</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>["""Tuberculous: osteitisM90.0""","""Tuberculous: synovitisM68.0""","""Tuberculosis of: kneeM01.1""","""Tuberculosis of bones and joints""","""Tuberculous: mastoiditisH75.0""","""Tuberculous: arthritisM01.1""","""Tuberculous: osteomyelitisM90.0"""]</t>
+          <t>["""Tuberculosis of nervous system, unspecifiedG99.8"""]</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>ICD10:A18.1</t>
+          <t>ICD10:A18.0</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>["""Tuberculosis of: ureterN29.1""","""Tuberculosis of: cervixN74.0""","""Tuberculosis of: male genital organsN51.-""","""Tuberculosis of: kidneyN29.1""","""Tuberculous female pelvic inflammatory diseaseN74.1""","""Tuberculosis of genitourinary system"""]</t>
+          <t>["""Tuberculous: arthritisM01.1""","""Tuberculous: mastoiditisH75.0""","""Tuberculosis of: kneeM01.1""","""Tuberculous: synovitisM68.0""","""Tuberculous: osteomyelitisM90.0""","""Tuberculosis of bones and joints""","""Tuberculous: osteitisM90.0"""]</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>ICD10:A18.2</t>
+          <t>ICD10:A18.1</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>["""Tuberculous adenitis""","""Tuberculous peripheral lymphadenopathy""","""tuberculosis of lymph nodes: intrathoracicA15.4A16.3""","""tuberculosis of lymph nodes: mesenteric and retroperitonealA18.3""","""tuberculous tracheobronchial adenopathyA15.4A16.3"""]</t>
+          <t>["""Tuberculosis of: ureterN29.1""","""Tuberculosis of: kidneyN29.1""","""Tuberculosis of: male genital organsN51.-""","""Tuberculosis of: cervixN74.0""","""Tuberculosis of genitourinary system""","""Tuberculous female pelvic inflammatory diseaseN74.1"""]</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>ICD10:A18.3</t>
+          <t>ICD10:A18.2</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>["""Tuberculous: peritonitisK67.3""","""Tuberculosis (of): retroperitoneal (lymph nodes)""","""Tuberculous: ascites""","""Tuberculous: enteritisK93.0""","""Tuberculosis of intestines, peritoneum and mesenteric glands""","""Tuberculosis (of): intestine (large)(small)K93.0"""]</t>
+          <t>["""tuberculosis of lymph nodes: mesenteric and retroperitonealA18.3""","""Tuberculous peripheral lymphadenopathy""","""tuberculosis of lymph nodes: intrathoracicA15.4A16.3""","""tuberculous tracheobronchial adenopathyA15.4A16.3""","""Tuberculous adenitis"""]</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>ICD10:A18.4</t>
+          <t>ICD10:A18.3</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>["""Lupus: exedens""","""Lupus: vulgaris: of eyelidH03.1""","""Tuberculosis of skin and subcutaneous tissue""","""Erythema induratum, tuberculous""","""Scrofuloderma""","""Lupus: vulgaris: NOS""","""lupus erythematosus systemicM32.-"""]</t>
+          <t>["""Tuberculous: enteritisK93.0""","""Tuberculous: peritonitisK67.3""","""Tuberculous: ascites""","""Tuberculosis of intestines, peritoneum and mesenteric glands""","""Tuberculosis (of): intestine (large)(small)K93.0""","""Tuberculosis (of): retroperitoneal (lymph nodes)"""]</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>ICD10:A18.5</t>
+          <t>ICD10:A18.4</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>["""Tuberculous: interstitial keratitisH19.2""","""Tuberculous: iridocyclitisH22.0""","""Tuberculous: episcleritisH19.0""","""Tuberculosis of eye""","""lupus vulgaris of eyelidA18.4""","""Tuberculous: keratoconjunctivitis (interstitial)(phlyctenular)H19.2""","""Tuberculous: chorioretinitisH32.0"""]</t>
+          <t>["""lupus erythematosus systemicM32.-""","""Lupus: exedens""","""Lupus: vulgaris: NOS""","""Tuberculosis of skin and subcutaneous tissue""","""Erythema induratum, tuberculous""","""Scrofuloderma""","""Lupus: vulgaris: of eyelidH03.1"""]</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>ICD10:A18.6</t>
+          <t>ICD10:A18.5</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>["""Tuberculous otitis mediaH67.0""","""tuberculous mastoiditisA18.0""","""Tuberculosis of ear"""]</t>
+          <t>["""Tuberculous: episcleritisH19.0""","""Tuberculous: iridocyclitisH22.0""","""Tuberculous: keratoconjunctivitis (interstitial)(phlyctenular)H19.2""","""Tuberculous: chorioretinitisH32.0""","""Tuberculosis of eye""","""lupus vulgaris of eyelidA18.4""","""Tuberculous: interstitial keratitisH19.2"""]</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>ICD10:A18.7</t>
+          <t>ICD10:A18.6</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>["""Tuberculosis of adrenal glandsE35.1""","""Addison disease, tuberculous"""]</t>
+          <t>["""Tuberculous otitis mediaH67.0""","""tuberculous mastoiditisA18.0""","""Tuberculosis of ear"""]</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>ICD10:A18.8</t>
+          <t>ICD10:A18.7</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>["""Tuberculous cerebral arteritisI68.1""","""Tuberculosis of: endocardiumI39.8""","""Tuberculosis of other specified organs""","""Tuberculosis of: myocardiumI41.0""","""Tuberculosis of: oesophagusK23.0""","""Tuberculosis of: pericardiumI32.0"""]</t>
+          <t>["""Tuberculosis of adrenal glandsE35.1""","""Addison disease, tuberculous"""]</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>ICD10:A19</t>
+          <t>ICD10:A18.8</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>["""Miliary tuberculosis""","""tuberculosis: disseminated""","""tuberculous polyserositis""","""tuberculosis: generalized"""]</t>
+          <t>["""Tuberculosis of: oesophagusK23.0""","""Tuberculosis of: pericardiumI32.0""","""Tuberculosis of: endocardiumI39.8""","""Tuberculosis of other specified organs""","""Tuberculosis of: myocardiumI41.0""","""Tuberculous cerebral arteritisI68.1"""]</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>ICD10:A20</t>
+          <t>ICD10:A19</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>["""infection due to Yersinia pestis""","""Plague"""]</t>
+          <t>["""tuberculosis: disseminated""","""Miliary tuberculosis""","""tuberculous polyserositis""","""tuberculosis: generalized"""]</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>ICD10:A20.7</t>
+          <t>ICD10:A20</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>["""Septicaemic plague"""]</t>
+          <t>["""infection due to Yersinia pestis""","""Plague"""]</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>ICD10:A20.8</t>
+          <t>ICD10:A20.7</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>["""Asymptomatic plague""","""Other forms of plague""","""Pestis minor""","""Abortive plague"""]</t>
+          <t>["""Septicaemic plague"""]</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>ICD10:A21</t>
+          <t>ICD10:A20.8</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>["""Tularaemia""","""infection due to Francisella tularensis""","""rabbit fever""","""deer-fly fever"""]</t>
+          <t>["""Other forms of plague""","""Pestis minor""","""Asymptomatic plague""","""Abortive plague"""]</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>ICD10:A21.0</t>
+          <t>ICD10:A21</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>["""Ulceroglandular tularaemia"""]</t>
+          <t>["""rabbit fever""","""Tularaemia""","""deer-fly fever""","""infection due to Francisella tularensis"""]</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>ICD10:A21.1</t>
+          <t>ICD10:A21.0</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>["""Oculoglandular tularaemia""","""Ophthalmic tularaemia"""]</t>
+          <t>["""Ulceroglandular tularaemia"""]</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>ICD10:A21.2</t>
+          <t>ICD10:A21.1</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>["""Pulmonary tularaemia"""]</t>
+          <t>["""Ophthalmic tularaemia""","""Oculoglandular tularaemia"""]</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>ICD10:A21.3</t>
+          <t>ICD10:A21.2</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>["""Gastrointestinal tularaemia""","""Abdominal tularaemia"""]</t>
+          <t>["""Pulmonary tularaemia"""]</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>ICD10:A21.7</t>
+          <t>ICD10:A21.3</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>["""Generalized tularaemia"""]</t>
+          <t>["""Abdominal tularaemia""","""Gastrointestinal tularaemia"""]</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>ICD10:A21.8</t>
+          <t>ICD10:A21.7</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>["""Other forms of tularaemia"""]</t>
+          <t>["""Generalized tularaemia"""]</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>ICD10:A21.9</t>
+          <t>ICD10:A21.8</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>["""Tularaemia, unspecified"""]</t>
+          <t>["""Other forms of tularaemia"""]</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>ICD10:A22</t>
+          <t>ICD10:A21.9</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>["""Anthrax""","""infection due to Bacillus anthracis"""]</t>
+          <t>["""Tularaemia, unspecified"""]</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>ICD10:A22.0</t>
+          <t>ICD10:A22</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>["""Malignant: pustule""","""Cutaneous anthrax""","""Malignant: carbuncle"""]</t>
+          <t>["""infection due to Bacillus anthracis""","""Anthrax"""]</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>ICD10:A22.1</t>
+          <t>ICD10:A22.0</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>["""Ragpicker disease""","""Pulmonary anthrax""","""Woolsorter disease""","""Inhalation anthrax"""]</t>
+          <t>["""Cutaneous anthrax""","""Malignant: carbuncle""","""Malignant: pustule"""]</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>ICD10:A22.8</t>
+          <t>ICD10:A22.1</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>["""Other forms of anthrax""","""Anthrax meningitisG01"""]</t>
+          <t>["""Ragpicker disease""","""Pulmonary anthrax""","""Woolsorter disease""","""Inhalation anthrax"""]</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>ICD10:A23</t>
+          <t>ICD10:A22.8</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>["""fever: Malta""","""fever: Mediterranean""","""fever: undulant""","""Brucellosis"""]</t>
+          <t>["""Other forms of anthrax""","""Anthrax meningitisG01"""]</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>ICD10:A23.9</t>
+          <t>ICD10:A23</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>["""Brucellosis, unspecified"""]</t>
+          <t>["""fever: Mediterranean""","""fever: undulant""","""fever: Malta""","""Brucellosis"""]</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>ICD10:A24</t>
+          <t>ICD10:A23.9</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>["""Glanders and melioidosis"""]</t>
+          <t>["""Brucellosis, unspecified"""]</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>ICD10:A24.0</t>
+          <t>ICD10:A24</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>["""Infection due to Burkholderia mallei""","""Malleus""","""Glanders""","""Infection due to Pseudomonas mallei"""]</t>
+          <t>["""Glanders and melioidosis"""]</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>ICD10:A24.1</t>
+          <t>ICD10:A24.0</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>["""Melioidosis: pneumonia""","""Acute and fulminating melioidosis""","""Melioidosis: sepsis"""]</t>
+          <t>["""Infection due to Burkholderia mallei""","""Infection due to Pseudomonas mallei""","""Malleus""","""Glanders"""]</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>ICD10:A24.2</t>
+          <t>ICD10:A24.1</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>["""Subacute and chronic melioidosis"""]</t>
+          <t>["""Acute and fulminating melioidosis""","""Melioidosis: sepsis""","""Melioidosis: pneumonia"""]</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>ICD10:A24.3</t>
+          <t>ICD10:A24.2</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>["""Other melioidosis"""]</t>
+          <t>["""Subacute and chronic melioidosis"""]</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>ICD10:A24.4</t>
+          <t>ICD10:A24.3</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>["""Infection due to Pseudomonas pseudomallei NOS""","""Melioidosis, unspecified""","""Infection due to Burkholderia pseudomallei NOS""","""Whitmore disease"""]</t>
+          <t>["""Other melioidosis"""]</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>ICD10:A25</t>
+          <t>ICD10:A24.4</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>["""Rat-bite fevers"""]</t>
+          <t>["""Melioidosis, unspecified""","""Whitmore disease""","""Infection due to Pseudomonas pseudomallei NOS""","""Infection due to Burkholderia pseudomallei NOS"""]</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>ICD10:A25.0</t>
+          <t>ICD10:A25</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>["""Spirillosis""","""Sodoku"""]</t>
+          <t>["""Rat-bite fevers"""]</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>ICD10:A25.1</t>
+          <t>ICD10:A25.0</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>["""Haverhill fever""","""Streptobacillosis""","""Epidemic arthritic erythema""","""Streptobacillary rat-bite fever"""]</t>
+          <t>["""Sodoku""","""Spirillosis"""]</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>ICD10:A25.9</t>
+          <t>ICD10:A25.1</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>["""Rat-bite fever, unspecified"""]</t>
+          <t>["""Streptobacillosis""","""Haverhill fever""","""Streptobacillary rat-bite fever""","""Epidemic arthritic erythema"""]</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>ICD10:A26</t>
+          <t>ICD10:A25.9</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>["""Erysipeloid"""]</t>
+          <t>["""Rat-bite fever, unspecified"""]</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>ICD10:A26.0</t>
+          <t>ICD10:A26</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>["""Erythema migrans""","""Cutaneous erysipeloid"""]</t>
+          <t>["""Erysipeloid"""]</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>ICD10:A26.7</t>
+          <t>ICD10:A26.0</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>["""Erysipelothrix sepsis"""]</t>
+          <t>["""Erythema migrans""","""Cutaneous erysipeloid"""]</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>ICD10:A26.8</t>
+          <t>ICD10:A26.7</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>["""Other forms of erysipeloid"""]</t>
+          <t>["""Erysipelothrix sepsis"""]</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>ICD10:A26.9</t>
+          <t>ICD10:A26.8</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>["""Erysipeloid, unspecified"""]</t>
+          <t>["""Other forms of erysipeloid"""]</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>ICD10:A27</t>
+          <t>ICD10:A26.9</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>["""Leptospirosis"""]</t>
+          <t>["""Erysipeloid, unspecified"""]</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>ICD10:A27.0</t>
+          <t>ICD10:A27</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>["""Leptospirosis due to Leptospira interrogans serovar icterohaemorrhagiae""","""Leptospirosis icterohaemorrhagica"""]</t>
+          <t>["""Leptospirosis"""]</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>ICD10:A27.8</t>
+          <t>ICD10:A27.0</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>["""Other forms of leptospirosis"""]</t>
+          <t>["""Leptospirosis due to Leptospira interrogans serovar icterohaemorrhagiae""","""Leptospirosis icterohaemorrhagica"""]</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>ICD10:A27.9</t>
+          <t>ICD10:A27.8</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>["""Leptospirosis, unspecified"""]</t>
+          <t>["""Other forms of leptospirosis"""]</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>ICD10:A28</t>
+          <t>ICD10:A27.9</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>["""Other zoonotic bacterial diseases, not elsewhere classified"""]</t>
+          <t>["""Leptospirosis, unspecified"""]</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>ICD10:A28.0</t>
+          <t>ICD10:A28</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>["""Pasteurellosis"""]</t>
+          <t>["""Other zoonotic bacterial diseases, not elsewhere classified"""]</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>ICD10:A28.1</t>
+          <t>ICD10:A28.0</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>["""Cat-scratch disease""","""Cat-scratch fever"""]</t>
+          <t>["""Pasteurellosis"""]</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>ICD10:A28.2</t>
+          <t>ICD10:A28.1</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>["""plagueA20.-""","""enteritis due to Yersinia enterocoliticaA04.6""","""Extraintestinal yersiniosis"""]</t>
+          <t>["""Cat-scratch fever""","""Cat-scratch disease"""]</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>ICD10:A28.8</t>
+          <t>ICD10:A28.2</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>["""Other specified zoonotic bacterial diseases, not elsewhere classified"""]</t>
+          <t>["""enteritis due to Yersinia enterocoliticaA04.6""","""Extraintestinal yersiniosis""","""plagueA20.-"""]</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>ICD10:A28.9</t>
+          <t>ICD10:A28.8</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>["""Zoonotic bacterial disease, unspecified"""]</t>
+          <t>["""Other specified zoonotic bacterial diseases, not elsewhere classified"""]</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>ICD10:A30</t>
+          <t>ICD10:A28.9</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>["""infection due to Mycobacterium leprae""","""Leprosy [Hansen disease]""","""sequelae of leprosyB92"""]</t>
+          <t>["""Zoonotic bacterial disease, unspecified"""]</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>ICD10:A30.0</t>
+          <t>ICD10:A30</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>["""Indeterminate leprosy""","""I leprosy"""]</t>
+          <t>["""Leprosy [Hansen disease]""","""infection due to Mycobacterium leprae""","""sequelae of leprosyB92"""]</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>ICD10:A30.1</t>
+          <t>ICD10:A30.0</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>["""Tuberculoid leprosy""","""TT leprosy"""]</t>
+          <t>["""I leprosy""","""Indeterminate leprosy"""]</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>ICD10:A30.2</t>
+          <t>ICD10:A30.1</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>["""Borderline tuberculoid leprosy""","""BT leprosy"""]</t>
+          <t>["""TT leprosy""","""Tuberculoid leprosy"""]</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>ICD10:A30.3</t>
+          <t>ICD10:A30.2</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>["""BB leprosy""","""Borderline leprosy"""]</t>
+          <t>["""Borderline tuberculoid leprosy""","""BT leprosy"""]</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>ICD10:A30.4</t>
+          <t>ICD10:A30.3</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>["""BL leprosy""","""Borderline lepromatous leprosy"""]</t>
+          <t>["""BB leprosy""","""Borderline leprosy"""]</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>ICD10:A30.5</t>
+          <t>ICD10:A30.4</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>["""LL leprosy""","""Lepromatous leprosy"""]</t>
+          <t>["""Borderline lepromatous leprosy""","""BL leprosy"""]</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>ICD10:A30.8</t>
+          <t>ICD10:A30.5</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>["""Other forms of leprosy"""]</t>
+          <t>["""Lepromatous leprosy""","""LL leprosy"""]</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>ICD10:A30.9</t>
+          <t>ICD10:A30.8</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>["""Leprosy, unspecified"""]</t>
+          <t>["""Other forms of leprosy"""]</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>ICD10:A31</t>
+          <t>ICD10:A30.9</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>["""leprosyA30.-""","""Infection due to other mycobacteria""","""tuberculosisA15-A19"""]</t>
+          <t>["""Leprosy, unspecified"""]</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>ICD10:A31.0</t>
+          <t>ICD10:A31</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>["""Infection due to Mycobacterium: avium""","""Pulmonary mycobacterial infection""","""Infection due to Mycobacterium: intracellulare [Battey bacillus]""","""Infection due to Mycobacterium: kansasii"""]</t>
+          <t>["""leprosyA30.-""","""tuberculosisA15-A19""","""Infection due to other mycobacteria"""]</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>ICD10:A31.1</t>
+          <t>ICD10:A31.0</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>["""Buruli ulcer""","""Infection due to Mycobacterium: marinum""","""Infection due to Mycobacterium: ulcerans""","""Cutaneous mycobacterial infection"""]</t>
+          <t>["""Pulmonary mycobacterial infection""","""Infection due to Mycobacterium: avium""","""Infection due to Mycobacterium: intracellulare [Battey bacillus]""","""Infection due to Mycobacterium: kansasii"""]</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>ICD10:A31.8</t>
+          <t>ICD10:A31.1</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>["""Other mycobacterial infections"""]</t>
+          <t>["""Cutaneous mycobacterial infection""","""Infection due to Mycobacterium: marinum""","""Infection due to Mycobacterium: ulcerans""","""Buruli ulcer"""]</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>ICD10:A31.9</t>
+          <t>ICD10:A31.8</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>["""Mycobacterial infection, unspecified""","""Mycobacteriosis NOS""","""Atypical mycobacterium infection NOS"""]</t>
+          <t>["""Other mycobacterial infections"""]</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>ICD10:A32</t>
+          <t>ICD10:A31.9</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>["""Listeriosis""","""neonatal (disseminated) listeriosisP37.2""","""listerial foodborne infection"""]</t>
+          <t>["""Mycobacterial infection, unspecified""","""Atypical mycobacterium infection NOS""","""Mycobacteriosis NOS"""]</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>MeSH:D000004</t>
+          <t>ICD10:A32</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>["""Acronyms as Topic""","""Abbreviations as Topic"""]</t>
+          <t>["""neonatal (disseminated) listeriosisP37.2""","""Listeriosis""","""listerial foodborne infection"""]</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>MeSH:D000003</t>
+          <t>MeSH:D000004</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>["""Slaughter Houses""","""Abattoirs""","""Slaughterhouses""","""Slaughter House"""]</t>
+          <t>["""Abbreviations as Topic""","""Acronyms as Topic"""]</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>MeSH:D000005</t>
+          <t>MeSH:D000003</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>["""Abdomen"""]</t>
+          <t>["""Slaughter Houses""","""Slaughter House""","""Slaughterhouses""","""Abattoirs"""]</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>MeSH:D000002</t>
+          <t>MeSH:D000005</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>["""Temefos""","""Temephos""","""Abate""","""Difos"""]</t>
+          <t>["""Abdomen"""]</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>MeSH:D000001</t>
+          <t>MeSH:D000002</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>["""A23187""","""Antibiotic A23187""","""A-23187""","""Calcimycin"""]</t>
+          <t>["""Difos""","""Abate""","""Temefos""","""Temephos"""]</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>MeSH:D000006</t>
+          <t>MeSH:D000001</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>["""Abdomen, Acute"""]</t>
+          <t>["""Calcimycin""","""Antibiotic A23187""","""A-23187""","""A23187"""]</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>MeSH:D000007</t>
+          <t>MeSH:D000006</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>["""Abdominal Injuries""","""Injuries, Abdominal"""]</t>
+          <t>["""Abdomen, Acute"""]</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>MeSH:D000008</t>
+          <t>MeSH:D000007</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>["""Abdominal Neoplasms"""]</t>
+          <t>["""Abdominal Injuries""","""Injuries, Abdominal"""]</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>MeSH:D000009</t>
+          <t>MeSH:D000008</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>["""Transverse Abdominal""","""Pyramidalis Muscle""","""Transversus Abdominis""","""Quadratus Abdominis""","""Cremaster Muscle""","""Abdominal Muscles"""]</t>
+          <t>["""Abdominal Neoplasms"""]</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>MeSH:D000011</t>
+          <t>MeSH:D000009</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>["""Abelson murine leukemia virus""","""Abelson Leukemia Virus"""]</t>
+          <t>["""Abdominal Muscles""","""Transverse Abdominal""","""Cremaster Muscle""","""Transversus Abdominis""","""Quadratus Abdominis""","""Pyramidalis Muscle"""]</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>MeSH:D000010</t>
+          <t>MeSH:D000011</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>["""Abducent Nerve""","""Abducens Nerve""","""Sixth Cranial Nerve""","""Nerve VI""","""Cranial Nerve VI""","""Nervus Abducens"""]</t>
+          <t>["""Abelson murine leukemia virus""","""Abelson Leukemia Virus"""]</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>MeSH:D000013</t>
+          <t>MeSH:D000010</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>["""Birth Defects""","""Deformities""","""Congenital Abnormalities""","""Defects, Congenital""","""Abnormalities, Congenital""","""Congenital Defects"""]</t>
+          <t>["""Sixth Cranial Nerve""","""Nerve VI""","""Cranial Nerve VI""","""Abducens Nerve""","""Nervus Abducens""","""Abducent Nerve"""]</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>MeSH:D000012</t>
+          <t>MeSH:D000013</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>["""Bassen-Kornzweig Disease""","""Microsomal Triglyceride Transfer Protein Deficiency""","""Acanthocytosis""","""Abetalipoproteinemia""","""Bassen-Kornzweig Syndrome""","""Microsomal Triglyceride Transfer Protein Deficiency Disease""","""Betalipoprotein Deficiency Disease"""]</t>
+          <t>["""Congenital Abnormalities""","""Defects, Congenital""","""Congenital Defects""","""Birth Defects""","""Deformities""","""Abnormalities, Congenital"""]</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>MeSH:D000014</t>
+          <t>MeSH:D000012</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>["""Abnormalities, Drug-Induced""","""Drug-Induced Abnormalities"""]</t>
+          <t>["""Abetalipoproteinemia""","""Microsomal Triglyceride Transfer Protein Deficiency Disease""","""Microsomal Triglyceride Transfer Protein Deficiency""","""Acanthocytosis""","""Bassen-Kornzweig Syndrome""","""Bassen-Kornzweig Disease""","""Betalipoprotein Deficiency Disease"""]</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>MeSH:D000015</t>
+          <t>MeSH:D000014</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>["""Multiple Abnormalities""","""Abnormalities, Multiple"""]</t>
+          <t>["""Abnormalities, Drug-Induced""","""Drug-Induced Abnormalities"""]</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>MeSH:D000017</t>
+          <t>MeSH:D000015</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>["""H Blood Group System""","""ABO Blood-Group System""","""Blood Group H Type 1 Antigen""","""ABO Factors""","""ABH Blood Group""","""H Blood Group"""]</t>
+          <t>["""Multiple Abnormalities""","""Abnormalities, Multiple"""]</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>MeSH:D000018</t>
+          <t>MeSH:D000017</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>["""Abomasum"""]</t>
+          <t>["""Blood Group H Type 1 Antigen""","""H Blood Group System""","""ABH Blood Group""","""ABO Blood-Group System""","""H Blood Group""","""ABO Factors"""]</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>MeSH:D000016</t>
+          <t>MeSH:D000018</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>["""Abnormalities, Radiation-Induced""","""Radiation-Induced Abnormalities"""]</t>
+          <t>["""Abomasum"""]</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>MeSH:D000019</t>
+          <t>MeSH:D000016</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>["""Abortifacient Effects""","""Contraceptive Agents, Postconception""","""Abortifacient Agents""","""Abortifacients""","""Abortifacient Effect"""]</t>
+          <t>["""Radiation-Induced Abnormalities""","""Abnormalities, Radiation-Induced"""]</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>MeSH:D000023</t>
+          <t>MeSH:D000019</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>["""Abortion Seekers, Refused""","""Abortion Applicants""","""Abortion Seekers""","""Abortion Seekers, Repeated"""]</t>
+          <t>["""Contraceptive Agents, Postconception""","""Abortifacient Effects""","""Abortifacient Effect""","""Abortifacient Agents""","""Abortifacients"""]</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>MeSH:D000020</t>
+          <t>MeSH:D000023</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>["""Abortifacient Agents, Nonsteroidal""","""Abortifacient Agents, Non-Steroidal"""]</t>
+          <t>["""Abortion Seekers, Repeated""","""Abortion Seekers, Refused""","""Abortion Applicants""","""Abortion Seekers"""]</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>MeSH:D000021</t>
+          <t>MeSH:D000020</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>["""Abortifacient Agents, Steroidal""","""Steroid Abortifacients"""]</t>
+          <t>["""Abortifacient Agents, Nonsteroidal""","""Abortifacient Agents, Non-Steroidal"""]</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>MeSH:D000024</t>
+          <t>MeSH:D000021</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>["""Illegal Abortion""","""Abortion, Criminal""","""Abortion, Illegal"""]</t>
+          <t>["""Abortifacient Agents, Steroidal""","""Steroid Abortifacients"""]</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>MeSH:D000022</t>
+          <t>MeSH:D000024</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>["""Early Pregnancy Loss""","""Spontaneous Abortion""","""Abortion, Spontaneous""","""Abortion, Tubal""","""Miscarriage"""]</t>
+          <t>["""Illegal Abortion""","""Abortion, Criminal""","""Abortion, Illegal"""]</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>MeSH:D000025</t>
+          <t>MeSH:D000022</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>["""Abortion, Selective""","""Eugenic Abortion""","""Selective Abortion""","""Abortion, Eugenic"""]</t>
+          <t>["""Abortion, Tubal""","""Spontaneous Abortion""","""Early Pregnancy Loss""","""Abortion, Spontaneous""","""Miscarriage"""]</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>MeSH:D000026</t>
+          <t>MeSH:D000025</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>["""Abortion, Recurrent""","""Abortion, Habitual""","""Miscarriage, Recurrent""","""Recurrent Early Pregnancy Loss"""]</t>
+          <t>["""Abortion, Selective""","""Abortion, Eugenic""","""Selective Abortion""","""Eugenic Abortion"""]</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>MeSH:D000029</t>
+          <t>MeSH:D000026</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>["""Abortion on Demand""","""Abortion, Legal"""]</t>
+          <t>["""Abortion, Recurrent""","""Abortion, Habitual""","""Recurrent Early Pregnancy Loss""","""Miscarriage, Recurrent"""]</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>MeSH:D000027</t>
+          <t>MeSH:D000029</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>["""Abortion, Incomplete"""]</t>
+          <t>["""Abortion, Legal""","""Abortion on Demand"""]</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>MeSH:D000028</t>
+          <t>MeSH:D000027</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>["""Embryotomy""","""Previous Abortion""","""Abortion (Induced)""","""Abortion Rate""","""Abortion, Drug-Induced""","""Fertility Control, Postconception""","""Abortion Technics""","""Abortion, Saline-Solution""","""Abortion, Rivanol""","""Abortion Techniques""","""Induced Abortion""","""Abortion History""","""Abortion, Soap-Solution""","""Abortion Failure""","""Abortion, Induced""","""Anti-Abortion Groups"""]</t>
+          <t>["""Abortion, Incomplete"""]</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>MeSH:D000030</t>
+          <t>MeSH:D000028</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>["""Abortion, Missed"""]</t>
+          <t>["""Abortion, Saline-Solution""","""Abortion Failure""","""Abortion, Induced""","""Fertility Control, Postconception""","""Abortion Rate""","""Abortion History""","""Induced Abortion""","""Abortion Technics""","""Abortion, Soap-Solution""","""Anti-Abortion Groups""","""Previous Abortion""","""Abortion, Drug-Induced""","""Abortion (Induced)""","""Abortion, Rivanol""","""Embryotomy""","""Abortion Techniques"""]</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>MeSH:D000032</t>
+          <t>MeSH:D000030</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>["""Therapeutic Abortion""","""Abortion, Therapeutic"""]</t>
+          <t>["""Abortion, Missed"""]</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>MeSH:D000035</t>
+          <t>MeSH:D000032</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>["""Abreaction"""]</t>
+          <t>["""Therapeutic Abortion""","""Abortion, Therapeutic"""]</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>MeSH:D000031</t>
+          <t>MeSH:D000035</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>["""Abortion, Septic""","""Septic Abortion"""]</t>
+          <t>["""Abreaction"""]</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>MeSH:D000033</t>
+          <t>MeSH:D000031</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>["""Threatened Miscarriage""","""Abortion, Threatened"""]</t>
+          <t>["""Abortion, Septic""","""Septic Abortion"""]</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>MeSH:D000034</t>
+          <t>MeSH:D000033</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>["""Veterinary Abortion""","""Abortion, Veterinary"""]</t>
+          <t>["""Abortion, Threatened""","""Threatened Miscarriage"""]</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>MeSH:D000037</t>
+          <t>MeSH:D000034</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>["""Placental Abruption""","""Abruptio Placentae"""]</t>
+          <t>["""Veterinary Abortion""","""Abortion, Veterinary"""]</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>MeSH:D000036</t>
+          <t>MeSH:D000037</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>["""Abrin A""","""Abrin C""","""Abrin"""]</t>
+          <t>["""Abruptio Placentae""","""Placental Abruption"""]</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>MeSH:D000041</t>
+          <t>MeSH:D000036</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>["""Absenteeism"""]</t>
+          <t>["""Abrin A""","""Abrin""","""Abrin C"""]</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>MeSH:D000042</t>
+          <t>MeSH:D000041</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>["""Absorption"""]</t>
+          <t>["""Absenteeism"""]</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>MeSH:D000038</t>
+          <t>MeSH:D000042</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>["""Abscess"""]</t>
+          <t>["""Absorption"""]</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>MeSH:D000039</t>
+          <t>MeSH:D000038</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>["""Abscess, Peritonsillar""","""Peritonsillar Abscess"""]</t>
+          <t>["""Abscess"""]</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>MeSH:D000043</t>
+          <t>MeSH:D000039</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>["""Indexes as Topic""","""Abstracting as Topic""","""Indexing and Abstracting as Topic""","""Indexing and Abstracting""","""Indexing""","""Abstracting""","""Abstracting and Indexing""","""Indexing as Topic""","""Abstracting and Indexing as Topic"""]</t>
+          <t>["""Peritonsillar Abscess""","""Abscess, Peritonsillar"""]</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>MeSH:D000044</t>
+          <t>MeSH:D000043</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>["""Dental Abutment""","""Abutment, Dental""","""Dental Abutments""","""Abutments, Dental"""]</t>
+          <t>["""Abstracting""","""Abstracting and Indexing""","""Indexes as Topic""","""Indexing as Topic""","""Abstracting and Indexing as Topic""","""Indexing and Abstracting as Topic""","""Indexing and Abstracting""","""Abstracting as Topic""","""Indexing"""]</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>MeSH:D000040</t>
+          <t>MeSH:D000044</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>["""Abscissic Acid""","""Abscisic Acid, (E,Z)-(+,-)-Isomer""","""Abscisic Acid Monoammonium Salt, (R)-Isomer""","""Abscisic Acid, (Z,E)-Isomer""","""Abscisic Acid""","""Abscisic Acid, (R)-Isomer""","""Abscissins""","""Abscisic Acid, (E,E)-(+-)-Isomer""","""Abscisic Acid, (+,-)-Isomer"""]</t>
+          <t>["""Dental Abutments""","""Dental Abutment""","""Abutments, Dental""","""Abutment, Dental"""]</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>MeSH:D000045</t>
+          <t>MeSH:D000040</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>["""Acacia""","""Wattle Tree""","""Acacia catechu""","""Locust Tree"""]</t>
+          <t>["""Abscisic Acid, (Z,E)-Isomer""","""Abscissins""","""Abscisic Acid, (E,E)-(+-)-Isomer""","""Abscissic Acid""","""Abscisic Acid, (R)-Isomer""","""Abscisic Acid, (+,-)-Isomer""","""Abscisic Acid, (E,Z)-(+,-)-Isomer""","""Abscisic Acid Monoammonium Salt, (R)-Isomer""","""Abscisic Acid"""]</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>MeSH:D000047</t>
+          <t>MeSH:D000045</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>["""Institutes""","""Research Institutes""","""Institutes and Academies""","""Academies""","""Academies and Institutes""","""Academy and Institute"""]</t>
+          <t>["""Locust Tree""","""Acacia catechu""","""Acacia""","""Wattle Tree"""]</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>MeSH:D000046</t>
+          <t>MeSH:D000047</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>["""University Medical Centers""","""Medical Center, University""","""University Medical Center""","""Academic Medical Center""","""Medical Centers, Academic""","""Center, Academic Medical""","""Medical Centers, University""","""Medical Center, Academic""","""Centers, University Medical""","""Centers, Academic Medical""","""Center, University Medical""","""Academic Medical Centers"""]</t>
+          <t>["""Institutes and Academies""","""Academy and Institute""","""Research Institutes""","""Institutes""","""Academies and Institutes""","""Academies"""]</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>MeSH:D000048</t>
+          <t>MeSH:D000046</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>["""Acanthamoeba"""]</t>
+          <t>["""Centers, Academic Medical""","""Academic Medical Center""","""Academic Medical Centers""","""Medical Centers, University""","""Medical Center, University""","""University Medical Center""","""Center, Academic Medical""","""Medical Center, Academic""","""Centers, University Medical""","""Center, University Medical""","""Medical Centers, Academic""","""University Medical Centers"""]</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>MeSH:D000050</t>
+          <t>MeSH:D000048</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>["""Acanthocytes"""]</t>
+          <t>["""Acanthamoeba"""]</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>MeSH:D000049</t>
+          <t>MeSH:D000050</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>["""Acanthocephala""","""Thorny-Headed Worms"""]</t>
+          <t>["""Acanthocytes"""]</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>MeSH:D000054</t>
+          <t>MeSH:D000049</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>["""Acceleration"""]</t>
+          <t>["""Thorny-Headed Worms""","""Acanthocephala"""]</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>MeSH:D000053</t>
+          <t>MeSH:D000054</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>["""Acari"""]</t>
+          <t>["""Acceleration"""]</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>MeSH:D000052</t>
+          <t>MeSH:D000053</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>["""Acanthosis Nigricans"""]</t>
+          <t>["""Acari"""]</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>MeSH:D000051</t>
+          <t>MeSH:D000052</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>["""Acantholysis"""]</t>
+          <t>["""Acanthosis Nigricans"""]</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>MeSH:D000057</t>
+          <t>MeSH:D000051</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>["""Accident Proneness"""]</t>
+          <t>["""Acantholysis"""]</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>MeSH:D000056</t>
+          <t>MeSH:D000057</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>["""Accident Prevention""","""Prevention, Accident"""]</t>
+          <t>["""Accident Proneness"""]</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>MeSH:D000058</t>
+          <t>MeSH:D000056</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>["""Falling""","""Falls, Accidental""","""Falls""","""Slip and Fall""","""Accidental Falls"""]</t>
+          <t>["""Prevention, Accident""","""Accident Prevention"""]</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>MeSH:D000059</t>
+          <t>MeSH:D000058</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>["""Accidents"""]</t>
+          <t>["""Falls, Accidental""","""Falling""","""Falls""","""Accidental Falls""","""Slip and Fall"""]</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>MeSH:D000055</t>
+          <t>MeSH:D000059</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>["""Nerve XI""","""Spinal Accessory Nerve""","""Cranial Nerve XI""","""Eleventh Cranial Nerve""","""Accessory Nerve""","""Nervus Accessorius"""]</t>
+          <t>["""Accidents"""]</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>MeSH:D000060</t>
+          <t>MeSH:D000055</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>["""Accidents, Aviation"""]</t>
+          <t>["""Accessory Nerve""","""Nerve XI""","""Nervus Accessorius""","""Spinal Accessory Nerve""","""Cranial Nerve XI""","""Eleventh Cranial Nerve"""]</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>MeSH:D000061</t>
+          <t>MeSH:D000060</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>["""Home Accidents""","""Accidents, Home"""]</t>
+          <t>["""Accidents, Aviation"""]</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>MeSH:D000063</t>
+          <t>MeSH:D000061</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>["""Traffic Accidents""","""Accidents, Traffic"""]</t>
+          <t>["""Accidents, Home""","""Home Accidents"""]</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>MeSH:D000064</t>
+          <t>MeSH:D000063</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>["""Acclimation""","""Acclimatization"""]</t>
+          <t>["""Traffic Accidents""","""Accidents, Traffic"""]</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>MeSH:D000062</t>
+          <t>MeSH:D000064</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>["""Occupational Accidents""","""Industrial Accidents""","""Accidents, Industrial""","""Accidents, Occupational"""]</t>
+          <t>["""Acclimation""","""Acclimatization"""]</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>MeSH:D000065</t>
+          <t>MeSH:D000062</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>["""Ocular Distance Accommodation""","""Ocular Accommodation""","""Accommodation, Lens""","""Accommodation, Ocular"""]</t>
+          <t>["""Accidents, Occupational""","""Occupational Accidents""","""Accidents, Industrial""","""Industrial Accidents"""]</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>MeSH:D000066</t>
+          <t>MeSH:D000065</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>["""Accounting"""]</t>
+          <t>["""Accommodation, Lens""","""Ocular Distance Accommodation""","""Ocular Accommodation""","""Accommodation, Ocular"""]</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>MeSH:D000066428</t>
+          <t>MeSH:D000066</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>["""Coal Industry"""]</t>
+          <t>["""Accounting"""]</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>MeSH:D000066448</t>
+          <t>MeSH:D000066428</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>["""Driving Under the Influence""","""Drunk Driving""","""Drinking and Driving""","""Drunken Driving""","""Driving While Intoxicated"""]</t>
+          <t>["""Coal Industry"""]</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>MeSH:D000066388</t>
+          <t>MeSH:D000066448</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>["""Industry, Natural Gas""","""Petroleum Industry""","""Gas and Oil Industry""","""Oil and Gas Industry""","""Crude Oil Industry""","""Natural Gas Industry"""]</t>
+          <t>["""Drinking and Driving""","""Drunken Driving""","""Driving While Intoxicated""","""Drunk Driving""","""Driving Under the Influence"""]</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>MeSH:D000066449</t>
+          <t>MeSH:D000066388</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>["""hESCs""","""Human Embryonic Stem Cell""","""Stem Cells, Human Embryonic""","""Cells, Human Embryonic Stem""","""Human Embryonic Stem Cells"""]</t>
+          <t>["""Gas and Oil Industry""","""Crude Oil Industry""","""Natural Gas Industry""","""Industry, Natural Gas""","""Petroleum Industry""","""Oil and Gas Industry"""]</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>MeSH:D000066450</t>
+          <t>MeSH:D000066449</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>["""mESCs""","""Mouse Embryonic Stem Cell""","""Mouse Embryonic Stem Cells""","""Stem Cells, Mouse Embryonic""","""Cells, Mouse Embryonic Stem"""]</t>
+          <t>["""Human Embryonic Stem Cell""","""Human Embryonic Stem Cells""","""Cells, Human Embryonic Stem""","""Stem Cells, Human Embryonic""","""hESCs"""]</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>MeSH:D000066477</t>
+          <t>MeSH:D000066450</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>["""Work Performance""","""Performance at Work""","""Job Performance"""]</t>
+          <t>["""mESCs""","""Stem Cells, Mouse Embryonic""","""Cells, Mouse Embryonic Stem""","""Mouse Embryonic Stem Cell""","""Mouse Embryonic Stem Cells"""]</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>MeSH:D000066473</t>
+          <t>MeSH:D000066477</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>["""Germ Cells, Embryonic""","""EG Cells""","""Embryonic Germ Cells"""]</t>
+          <t>["""Job Performance""","""Work Performance""","""Performance at Work"""]</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>MeSH:D000066492</t>
+          <t>MeSH:D000066473</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>["""Cognitive Aging"""]</t>
+          <t>["""EG Cells""","""Germ Cells, Embryonic""","""Embryonic Germ Cells"""]</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>MeSH:D000066491</t>
+          <t>MeSH:D000066492</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>["""Medical Decision-Making""","""Clinical Decision-Making"""]</t>
+          <t>["""Cognitive Aging"""]</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>MeSH:D000066479</t>
+          <t>MeSH:D000066491</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>["""Criminal Conduct""","""Criminal Behavior""","""Unlawful Behavior""","""Illegal Behavior""","""Illicit Behavior""","""Criminal Intent"""]</t>
+          <t>["""Clinical Decision-Making""","""Medical Decision-Making"""]</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>MeSH:D000066494</t>
+          <t>MeSH:D000066479</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>["""Cognitive Neuroscience"""]</t>
+          <t>["""Criminal Conduct""","""Illegal Behavior""","""Criminal Behavior""","""Criminal Intent""","""Illicit Behavior""","""Unlawful Behavior"""]</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>MeSH:D000066499</t>
+          <t>MeSH:D000066494</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>["""Identity Recognition""","""Face Perception""","""Facial Recognition"""]</t>
+          <t>["""Cognitive Neuroscience"""]</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>MeSH:D000066498</t>
+          <t>MeSH:D000066499</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>["""Emotional Adaptation""","""Emotional Adjustment""","""Psychological Adjustment"""]</t>
+          <t>["""Facial Recognition""","""Face Perception""","""Identity Recognition"""]</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>MeSH:D000066502</t>
+          <t>MeSH:D000066498</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>["""Grandmother""","""Grandparent""","""Grandfather""","""Grandparents"""]</t>
+          <t>["""Psychological Adjustment""","""Emotional Adaptation""","""Emotional Adjustment"""]</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>MeSH:D000066505</t>
+          <t>MeSH:D000066502</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>["""Help-Seeking Behavior"""]</t>
+          <t>["""Grandmother""","""Grandfather""","""Grandparent""","""Grandparents"""]</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>MeSH:D000066506</t>
+          <t>MeSH:D000066505</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>["""Rule of Thumb""","""Heuristics"""]</t>
+          <t>["""Help-Seeking Behavior"""]</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>MeSH:D000066511</t>
+          <t>MeSH:D000066506</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>["""Intimate Partner Abuse""","""Intimate Partner Violence""","""Dating Violence"""]</t>
+          <t>["""Heuristics""","""Rule of Thumb"""]</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>MeSH:D000066550</t>
+          <t>MeSH:D000066511</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>["""Physical Abuse""","""Physical Maltreatment""","""Physical Violence"""]</t>
+          <t>["""Dating Violence""","""Intimate Partner Violence""","""Intimate Partner Abuse"""]</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>MeSH:D000066530</t>
+          <t>MeSH:D000066550</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>["""Neurorehabilitation""","""Neurological Rehabilitation""","""Neurologic Rehabilitation"""]</t>
+          <t>["""Physical Violence""","""Physical Abuse""","""Physical Maltreatment"""]</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>MeSH:D000066553</t>
+          <t>MeSH:D000066530</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>["""Problem Behavior""","""Behavioral Problem""","""Disruptive Behavior""","""Dysfunctional Behavior, Psychology"""]</t>
+          <t>["""Neurological Rehabilitation""","""Neurologic Rehabilitation""","""Neurorehabilitation"""]</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>MeSH:D000066630</t>
+          <t>MeSH:D000066553</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>["""Ectopic Expression""","""Ectopic Gene Expression"""]</t>
+          <t>["""Disruptive Behavior""","""Behavioral Problem""","""Dysfunctional Behavior, Psychology""","""Problem Behavior"""]</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>MeSH:D000066670</t>
+          <t>MeSH:D000066630</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>["""Cell Plasticity""","""Cellular Plasticity"""]</t>
+          <t>["""Ectopic Gene Expression""","""Ectopic Expression"""]</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>MeSH:D000066673</t>
+          <t>MeSH:D000066670</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>["""Stem Cell Renewal""","""Stem Cell Self-Renewal""","""Cell Self Renewal"""]</t>
+          <t>["""Cell Plasticity""","""Cellular Plasticity"""]</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>MeSH:D000066608</t>
+          <t>MeSH:D000066673</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>["""Minimum Legal Drinking Age""","""Adolescent Alcohol Use""","""Teenage Drinking""","""Underage Alcohol Consumption""","""Adolescent Alcohol Consumption""","""Youth Alcohol Consumption""","""Underage Drinking""","""Adolescent Drinking""","""Minimum Drinking Age""","""Teen Drinking""","""Underage Alcohol Use""","""Legal Drinking Age""","""Youth Drinking"""]</t>
+          <t>["""Stem Cell Self-Renewal""","""Stem Cell Renewal""","""Cell Self Renewal"""]</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>MeSH:D000066768</t>
+          <t>MeSH:D000066608</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>["""Rehabilitation Research"""]</t>
+          <t>["""Underage Alcohol Consumption""","""Minimum Drinking Age""","""Underage Alcohol Use""","""Minimum Legal Drinking Age""","""Youth Drinking""","""Adolescent Drinking""","""Underage Drinking""","""Adolescent Alcohol Consumption""","""Legal Drinking Age""","""Teen Drinking""","""Teenage Drinking""","""Youth Alcohol Consumption""","""Adolescent Alcohol Use"""]</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>MeSH:D000066792</t>
+          <t>MeSH:D000066768</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>["""Dentofacial Orthopedists""","""Orthodontists"""]</t>
+          <t>["""Rehabilitation Research"""]</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>MeSH:D000066888</t>
+          <t>MeSH:D000066792</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>["""Diet, Food, and Nutrition"""]</t>
+          <t>["""Orthodontists""","""Dentofacial Orthopedists"""]</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>MeSH:D000066794</t>
+          <t>MeSH:D000066888</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>["""Oral Surgeons""","""Maxillofacial Surgeons""","""Oral and Maxillofacial Surgeons""","""Exodontists"""]</t>
+          <t>["""Diet, Food, and Nutrition"""]</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>MeSH:D000066829</t>
+          <t>MeSH:D000066794</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>["""Neuron Protection""","""Neuronal Protection""","""Neuroprotection""","""Neural Protection"""]</t>
+          <t>["""Exodontists""","""Oral Surgeons""","""Oral and Maxillofacial Surgeons""","""Maxillofacial Surgeons"""]</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>MeSH:D000066891</t>
+          <t>MeSH:D000066829</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>["""Critical Care Outcomes"""]</t>
+          <t>["""Neuroprotection""","""Neural Protection""","""Neuronal Protection""","""Neuron Protection"""]</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>MeSH:D000066889</t>
+          <t>MeSH:D000066891</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>["""Triticum x Secale""","""Triticosecale""","""Triticale"""]</t>
+          <t>["""Critical Care Outcomes"""]</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>MeSH:D000066908</t>
+          <t>MeSH:D000066889</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>["""Interactive Learning""","""Simulation Training"""]</t>
+          <t>["""Triticosecale""","""Triticale""","""Triticum x Secale"""]</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>MeSH:D000066949</t>
+          <t>MeSH:D000066908</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>["""Biobehavioral Sciences""","""Biobehavioral Model""","""Biobehavioral Approach"""]</t>
+          <t>["""Interactive Learning""","""Simulation Training"""]</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>MeSH:D000066928</t>
+          <t>MeSH:D000066949</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>["""Millets"""]</t>
+          <t>["""Biobehavioral Model""","""Biobehavioral Approach""","""Biobehavioral Sciences"""]</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>MeSH:D000066970</t>
+          <t>MeSH:D000066928</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>["""Protein Corona"""]</t>
+          <t>["""Millets"""]</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>MeSH:D000067</t>
+          <t>MeSH:D000066970</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>["""Accounts Payable and Receivable""","""Accounts Payable"""]</t>
+          <t>["""Protein Corona"""]</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>MeSH:D000066988</t>
+          <t>MeSH:D000067</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>["""Lacto-Ovo Vegetarians""","""Ovo-Lacto Vegetarians""","""Vegetarians"""]</t>
+          <t>["""Accounts Payable and Receivable""","""Accounts Payable"""]</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>MeSH:D000066989</t>
+          <t>MeSH:D000066988</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>["""Vegans"""]</t>
+          <t>["""Lacto-Ovo Vegetarians""","""Vegetarians""","""Ovo-Lacto Vegetarians"""]</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>MeSH:D000067010</t>
+          <t>MeSH:D000066989</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>["""Illiteracy""","""Literacy"""]</t>
+          <t>["""Vegans"""]</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>MeSH:D000067009</t>
+          <t>MeSH:D000067010</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>["""Children's Sports""","""Adolescent Sports""","""Youth Sports""","""Organized Youth Sports"""]</t>
+          <t>["""Literacy""","""Illiteracy"""]</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>MeSH:D000067012</t>
+          <t>MeSH:D000067009</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>["""Banking, Commercial""","""Banking, Financial""","""Checking Accounts""","""Savings Accounts""","""Bank Accounts""","""Banking, Personal"""]</t>
+          <t>["""Organized Youth Sports""","""Youth Sports""","""Adolescent Sports""","""Children's Sports"""]</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>MeSH:D000067013</t>
+          <t>MeSH:D000067012</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>["""Evidence-Based Facility Design"""]</t>
+          <t>["""Savings Accounts""","""Bank Accounts""","""Banking, Financial""","""Checking Accounts""","""Banking, Personal""","""Banking, Commercial"""]</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
+          <t>MeSH:D000067013</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>["""Evidence-Based Facility Design"""]</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
           <t>MeSH:D000067029</t>
         </is>
       </c>
-      <c r="B503" t="inlineStr">
-        <is>
-          <t>["""Physical Appearance""","""Outward Appearance""","""Physical Appearance, Body""","""Body, Physical Appearance"""]</t>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>["""Outward Appearance""","""Physical Appearance""","""Physical Appearance, Body""","""Body, Physical Appearance"""]</t>
         </is>
       </c>
     </row>
